--- a/templates/KTI_Discharge_Invoice.xlsx
+++ b/templates/KTI_Discharge_Invoice.xlsx
@@ -8,34 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F826C743-C1C6-4206-8D4C-B96515D58305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B19E45-A9FE-455D-A351-085F60A589E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42540" yWindow="5258" windowWidth="14385" windowHeight="7484" tabRatio="896" activeTab="1" xr2:uid="{A5E11D55-FD63-4C1B-A2BC-73BE53B894FE}"/>
+    <workbookView xWindow="-26978" yWindow="-98" windowWidth="27076" windowHeight="16395" tabRatio="896" activeTab="1" xr2:uid="{A5E11D55-FD63-4C1B-A2BC-73BE53B894FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Б.Нагаева хранение ТРК" sheetId="71" r:id="rId1"/>
-    <sheet name="Б.Нагаева выгрузка ТРК 010623" sheetId="70" r:id="rId2"/>
+    <sheet name="Invoice_discharge" sheetId="70" r:id="rId2"/>
     <sheet name="Б.Нагаева хранениеМСИ " sheetId="77" r:id="rId3"/>
     <sheet name="Б. Нагаева выгрузка МСИ010623" sheetId="69" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Инвойс_всего">'Б.Нагаева выгрузка ТРК 010623'!$J$40</definedName>
-    <definedName name="Инвойс_всего_п">'Б.Нагаева выгрузка ТРК 010623'!$H$107</definedName>
-    <definedName name="Инвойс_выгрузка_дата">'Б.Нагаева выгрузка ТРК 010623'!$C$17</definedName>
-    <definedName name="Инвойс_дата_п">'Б.Нагаева выгрузка ТРК 010623'!$J$78</definedName>
-    <definedName name="Инвойс_компания">'Б.Нагаева выгрузка ТРК 010623'!$C$10</definedName>
-    <definedName name="Инвойс_компания_п">'Б.Нагаева выгрузка ТРК 010623'!$C$78</definedName>
-    <definedName name="Инвойс_контракт">'Б.Нагаева выгрузка ТРК 010623'!$C$12</definedName>
-    <definedName name="Инвойс_контракт_п">'Б.Нагаева выгрузка ТРК 010623'!$C$80</definedName>
-    <definedName name="Инвойс_массив">'Б.Нагаева выгрузка ТРК 010623'!$B$26</definedName>
-    <definedName name="Инвойс_массив_п">'Б.Нагаева выгрузка ТРК 010623'!$B$93</definedName>
-    <definedName name="Инвойс_номер">'Б.Нагаева выгрузка ТРК 010623'!$E$8</definedName>
-    <definedName name="Инвойс_номер_п">'Б.Нагаева выгрузка ТРК 010623'!$E$76</definedName>
-    <definedName name="Инвойс_соглашение">'Б.Нагаева выгрузка ТРК 010623'!$C$21</definedName>
-    <definedName name="Инвойс_соглашение_п">'Б.Нагаева выгрузка ТРК 010623'!$C$88</definedName>
-    <definedName name="Инвойс_транспорт">'Б.Нагаева выгрузка ТРК 010623'!$C$19</definedName>
-    <definedName name="Инвойс_транспорт_п">'Б.Нагаева выгрузка ТРК 010623'!$C$86</definedName>
-    <definedName name="Инвойсс_выгрузка_дата_п">'Б.Нагаева выгрузка ТРК 010623'!$C$84</definedName>
+    <definedName name="Инвойс_всего">Invoice_discharge!$J$40</definedName>
+    <definedName name="Инвойс_всего_п">Invoice_discharge!$H$107</definedName>
+    <definedName name="Инвойс_выгрузка_дата">Invoice_discharge!$C$17</definedName>
+    <definedName name="Инвойс_дата">Invoice_discharge!$J$10</definedName>
+    <definedName name="Инвойс_дата_п">Invoice_discharge!$J$78</definedName>
+    <definedName name="Инвойс_компания">Invoice_discharge!$C$10</definedName>
+    <definedName name="Инвойс_компания_п">Invoice_discharge!$C$78</definedName>
+    <definedName name="Инвойс_контракт">Invoice_discharge!$C$12</definedName>
+    <definedName name="Инвойс_контракт_п">Invoice_discharge!$C$80</definedName>
+    <definedName name="Инвойс_массив">Invoice_discharge!$B$26</definedName>
+    <definedName name="Инвойс_массив_п">Invoice_discharge!$B$93</definedName>
+    <definedName name="Инвойс_номер">Invoice_discharge!$E$8</definedName>
+    <definedName name="Инвойс_номер_п">Invoice_discharge!$E$76</definedName>
+    <definedName name="Инвойс_соглашение">Invoice_discharge!$C$21</definedName>
+    <definedName name="Инвойс_соглашение_п">Invoice_discharge!$C$88</definedName>
+    <definedName name="Инвойс_транспорт">Invoice_discharge!$C$19</definedName>
+    <definedName name="Инвойс_транспорт_п">Invoice_discharge!$C$86</definedName>
+    <definedName name="Инвойсс_выгрузка_дата_п">Invoice_discharge!$C$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1004,6 +1005,30 @@
     <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1014,29 +1039,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1068,9 +1075,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1079,9 +1083,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2379,15 +2380,15 @@
   <sheetData>
     <row r="1" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
@@ -2405,39 +2406,39 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2471,10 +2472,10 @@
       <c r="I10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="129">
+      <c r="J10" s="125">
         <v>45107</v>
       </c>
-      <c r="K10" s="129"/>
+      <c r="K10" s="125"/>
     </row>
     <row r="11" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
@@ -2603,24 +2604,24 @@
     </row>
     <row r="24" spans="2:17" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132" t="s">
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="131"/>
-      <c r="H25" s="133" t="s">
+      <c r="G25" s="127"/>
+      <c r="H25" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="134"/>
-      <c r="J25" s="135" t="s">
+      <c r="I25" s="130"/>
+      <c r="J25" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="136"/>
+      <c r="K25" s="132"/>
     </row>
     <row r="26" spans="2:17" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="37" t="s">
@@ -2995,17 +2996,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:J5"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
@@ -3025,8 +3026,8 @@
   </sheetPr>
   <dimension ref="B1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A69" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72:G72"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A63" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3896,19 +3897,19 @@
       <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
       <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="63"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
       <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3942,10 +3943,10 @@
       <c r="I10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="129">
+      <c r="J10" s="125">
         <v>45079</v>
       </c>
-      <c r="K10" s="129"/>
+      <c r="K10" s="125"/>
     </row>
     <row r="11" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
@@ -4060,21 +4061,21 @@
     </row>
     <row r="23" spans="2:17" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="138" t="s">
+      <c r="B24" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="141" t="s">
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="138"/>
-      <c r="I24" s="135" t="s">
+      <c r="H24" s="140"/>
+      <c r="I24" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="140"/>
+      <c r="J24" s="142"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B25" s="10"/>
@@ -4280,15 +4281,15 @@
       <c r="I46" s="69"/>
     </row>
     <row r="70" spans="2:11" ht="30.4" x14ac:dyDescent="0.4">
-      <c r="C70" s="149" t="s">
+      <c r="C70" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="D70" s="149"/>
-      <c r="E70" s="149"/>
-      <c r="F70" s="149"/>
-      <c r="G70" s="149"/>
-      <c r="H70" s="149"/>
-      <c r="I70" s="149"/>
+      <c r="D70" s="150"/>
+      <c r="E70" s="150"/>
+      <c r="F70" s="150"/>
+      <c r="G70" s="150"/>
+      <c r="H70" s="150"/>
+      <c r="I70" s="150"/>
       <c r="J70" s="61"/>
       <c r="K70" s="61"/>
     </row>
@@ -4306,44 +4307,44 @@
       <c r="K71" s="94"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C72" s="150" t="s">
+      <c r="C72" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="150"/>
-      <c r="E72" s="150"/>
-      <c r="F72" s="150"/>
-      <c r="G72" s="150"/>
-      <c r="H72" s="151"/>
-      <c r="I72" s="151"/>
-      <c r="J72" s="151"/>
+      <c r="D72" s="151"/>
+      <c r="E72" s="151"/>
+      <c r="F72" s="151"/>
+      <c r="G72" s="151"/>
+      <c r="H72" s="152"/>
+      <c r="I72" s="152"/>
+      <c r="J72" s="152"/>
       <c r="K72" s="95"/>
     </row>
     <row r="73" spans="2:11" ht="15" x14ac:dyDescent="0.4">
       <c r="B73" s="63"/>
-      <c r="C73" s="150" t="s">
+      <c r="C73" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="150"/>
-      <c r="E73" s="150"/>
-      <c r="F73" s="150"/>
-      <c r="G73" s="150"/>
-      <c r="H73" s="151"/>
-      <c r="I73" s="151"/>
-      <c r="J73" s="151"/>
+      <c r="D73" s="151"/>
+      <c r="E73" s="151"/>
+      <c r="F73" s="151"/>
+      <c r="G73" s="151"/>
+      <c r="H73" s="152"/>
+      <c r="I73" s="152"/>
+      <c r="J73" s="152"/>
       <c r="K73" s="95"/>
     </row>
     <row r="74" spans="2:11" ht="15" x14ac:dyDescent="0.4">
       <c r="B74" s="63"/>
-      <c r="C74" s="128" t="s">
+      <c r="C74" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="128"/>
-      <c r="E74" s="128"/>
-      <c r="F74" s="128"/>
-      <c r="G74" s="128"/>
-      <c r="H74" s="147"/>
-      <c r="I74" s="147"/>
-      <c r="J74" s="147"/>
+      <c r="D74" s="136"/>
+      <c r="E74" s="136"/>
+      <c r="F74" s="136"/>
+      <c r="G74" s="136"/>
+      <c r="H74" s="137"/>
+      <c r="I74" s="137"/>
+      <c r="J74" s="137"/>
       <c r="K74" s="63"/>
     </row>
     <row r="76" spans="2:11" ht="15" x14ac:dyDescent="0.4">
@@ -4375,10 +4376,10 @@
       <c r="I78" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J78" s="148">
+      <c r="J78" s="149">
         <v>45033</v>
       </c>
-      <c r="K78" s="148"/>
+      <c r="K78" s="149"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B79" s="8"/>
@@ -4497,21 +4498,21 @@
       <c r="J90" s="121"/>
     </row>
     <row r="91" spans="2:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="142" t="s">
+      <c r="B91" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="C91" s="142"/>
-      <c r="D91" s="142"/>
-      <c r="E91" s="142"/>
-      <c r="F91" s="143"/>
-      <c r="G91" s="144" t="s">
+      <c r="C91" s="144"/>
+      <c r="D91" s="144"/>
+      <c r="E91" s="144"/>
+      <c r="F91" s="145"/>
+      <c r="G91" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="H91" s="146"/>
-      <c r="I91" s="144" t="s">
+      <c r="H91" s="148"/>
+      <c r="I91" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="J91" s="145"/>
+      <c r="J91" s="147"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B92" s="52"/>
@@ -4765,18 +4766,21 @@
       <c r="J121" s="101"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B122" s="137"/>
-      <c r="C122" s="137"/>
-      <c r="D122" s="137"/>
-      <c r="E122" s="137"/>
-      <c r="F122" s="137"/>
-      <c r="G122" s="137"/>
-      <c r="H122" s="137"/>
-      <c r="I122" s="137"/>
-      <c r="J122" s="137"/>
+      <c r="B122" s="139"/>
+      <c r="C122" s="139"/>
+      <c r="D122" s="139"/>
+      <c r="E122" s="139"/>
+      <c r="F122" s="139"/>
+      <c r="G122" s="139"/>
+      <c r="H122" s="139"/>
+      <c r="I122" s="139"/>
+      <c r="J122" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:J73"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="D6:F6"/>
@@ -4793,9 +4797,6 @@
     <mergeCell ref="J78:K78"/>
     <mergeCell ref="C70:I70"/>
     <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:J73"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="2" orientation="portrait" r:id="rId1"/>
@@ -5461,15 +5462,15 @@
   <sheetData>
     <row r="1" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
@@ -5487,39 +5488,39 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5553,10 +5554,10 @@
       <c r="I10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="129">
+      <c r="J10" s="125">
         <v>45107</v>
       </c>
-      <c r="K10" s="129"/>
+      <c r="K10" s="125"/>
     </row>
     <row r="11" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
@@ -5685,24 +5686,24 @@
     </row>
     <row r="24" spans="2:17" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132" t="s">
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="131"/>
-      <c r="H25" s="133" t="s">
+      <c r="G25" s="127"/>
+      <c r="H25" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="134"/>
-      <c r="J25" s="135" t="s">
+      <c r="I25" s="130"/>
+      <c r="J25" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="136"/>
+      <c r="K25" s="132"/>
     </row>
     <row r="26" spans="2:17" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="37" t="s">
@@ -6129,17 +6130,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:J5"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
@@ -6805,15 +6806,15 @@
   <sheetData>
     <row r="1" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
@@ -6831,39 +6832,39 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6897,10 +6898,10 @@
       <c r="I10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="129">
+      <c r="J10" s="125">
         <v>45079</v>
       </c>
-      <c r="K10" s="129"/>
+      <c r="K10" s="125"/>
     </row>
     <row r="11" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
@@ -7029,20 +7030,20 @@
     </row>
     <row r="24" spans="2:17" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="141" t="s">
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="143" t="s">
         <v>23</v>
       </c>
       <c r="G25" s="153"/>
-      <c r="H25" s="135" t="s">
+      <c r="H25" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="140"/>
+      <c r="I25" s="142"/>
     </row>
     <row r="26" spans="2:17" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="37" t="s">

--- a/templates/KTI_Discharge_Invoice.xlsx
+++ b/templates/KTI_Discharge_Invoice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B19E45-A9FE-455D-A351-085F60A589E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12076D56-8082-4F54-9E5E-6B2BD3FA5D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26978" yWindow="-98" windowWidth="27076" windowHeight="16395" tabRatio="896" activeTab="1" xr2:uid="{A5E11D55-FD63-4C1B-A2BC-73BE53B894FE}"/>
+    <workbookView minimized="1" xWindow="-23250" yWindow="3112" windowWidth="14385" windowHeight="7486" tabRatio="896" activeTab="1" xr2:uid="{A5E11D55-FD63-4C1B-A2BC-73BE53B894FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Б.Нагаева хранение ТРК" sheetId="71" r:id="rId1"/>
@@ -1005,6 +1005,16 @@
     <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1029,16 +1039,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1079,10 +1083,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2380,15 +2380,15 @@
   <sheetData>
     <row r="1" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
@@ -2406,39 +2406,39 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2472,10 +2472,10 @@
       <c r="I10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="125">
+      <c r="J10" s="129">
         <v>45107</v>
       </c>
-      <c r="K10" s="125"/>
+      <c r="K10" s="129"/>
     </row>
     <row r="11" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
@@ -2604,24 +2604,24 @@
     </row>
     <row r="24" spans="2:17" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="128" t="s">
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="127"/>
-      <c r="H25" s="129" t="s">
+      <c r="G25" s="131"/>
+      <c r="H25" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="130"/>
-      <c r="J25" s="131" t="s">
+      <c r="I25" s="134"/>
+      <c r="J25" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="132"/>
+      <c r="K25" s="136"/>
     </row>
     <row r="26" spans="2:17" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="37" t="s">
@@ -2996,17 +2996,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
@@ -3026,8 +3026,8 @@
   </sheetPr>
   <dimension ref="B1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A63" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3897,19 +3897,19 @@
       <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
       <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="63"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
       <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3943,10 +3943,10 @@
       <c r="I10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="125">
+      <c r="J10" s="129">
         <v>45079</v>
       </c>
-      <c r="K10" s="125"/>
+      <c r="K10" s="129"/>
     </row>
     <row r="11" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
@@ -4061,21 +4061,21 @@
     </row>
     <row r="23" spans="2:17" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="140" t="s">
+      <c r="B24" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="143" t="s">
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="140"/>
-      <c r="I24" s="131" t="s">
+      <c r="H24" s="142"/>
+      <c r="I24" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="142"/>
+      <c r="J24" s="144"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B25" s="10"/>
@@ -4281,15 +4281,15 @@
       <c r="I46" s="69"/>
     </row>
     <row r="70" spans="2:11" ht="30.4" x14ac:dyDescent="0.4">
-      <c r="C70" s="150" t="s">
+      <c r="C70" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="D70" s="150"/>
-      <c r="E70" s="150"/>
-      <c r="F70" s="150"/>
-      <c r="G70" s="150"/>
-      <c r="H70" s="150"/>
-      <c r="I70" s="150"/>
+      <c r="D70" s="152"/>
+      <c r="E70" s="152"/>
+      <c r="F70" s="152"/>
+      <c r="G70" s="152"/>
+      <c r="H70" s="152"/>
+      <c r="I70" s="152"/>
       <c r="J70" s="61"/>
       <c r="K70" s="61"/>
     </row>
@@ -4307,44 +4307,44 @@
       <c r="K71" s="94"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C72" s="151" t="s">
+      <c r="C72" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="151"/>
-      <c r="E72" s="151"/>
-      <c r="F72" s="151"/>
-      <c r="G72" s="151"/>
-      <c r="H72" s="152"/>
-      <c r="I72" s="152"/>
-      <c r="J72" s="152"/>
+      <c r="D72" s="138"/>
+      <c r="E72" s="138"/>
+      <c r="F72" s="138"/>
+      <c r="G72" s="138"/>
+      <c r="H72" s="137"/>
+      <c r="I72" s="137"/>
+      <c r="J72" s="137"/>
       <c r="K72" s="95"/>
     </row>
     <row r="73" spans="2:11" ht="15" x14ac:dyDescent="0.4">
       <c r="B73" s="63"/>
-      <c r="C73" s="151" t="s">
+      <c r="C73" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="151"/>
-      <c r="E73" s="151"/>
-      <c r="F73" s="151"/>
-      <c r="G73" s="151"/>
-      <c r="H73" s="152"/>
-      <c r="I73" s="152"/>
-      <c r="J73" s="152"/>
+      <c r="D73" s="138"/>
+      <c r="E73" s="138"/>
+      <c r="F73" s="138"/>
+      <c r="G73" s="138"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="137"/>
+      <c r="J73" s="137"/>
       <c r="K73" s="95"/>
     </row>
     <row r="74" spans="2:11" ht="15" x14ac:dyDescent="0.4">
       <c r="B74" s="63"/>
-      <c r="C74" s="136" t="s">
+      <c r="C74" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="136"/>
-      <c r="E74" s="136"/>
-      <c r="F74" s="136"/>
-      <c r="G74" s="136"/>
-      <c r="H74" s="137"/>
-      <c r="I74" s="137"/>
-      <c r="J74" s="137"/>
+      <c r="D74" s="128"/>
+      <c r="E74" s="128"/>
+      <c r="F74" s="128"/>
+      <c r="G74" s="128"/>
+      <c r="H74" s="139"/>
+      <c r="I74" s="139"/>
+      <c r="J74" s="139"/>
       <c r="K74" s="63"/>
     </row>
     <row r="76" spans="2:11" ht="15" x14ac:dyDescent="0.4">
@@ -4376,10 +4376,10 @@
       <c r="I78" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J78" s="149">
+      <c r="J78" s="151">
         <v>45033</v>
       </c>
-      <c r="K78" s="149"/>
+      <c r="K78" s="151"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B79" s="8"/>
@@ -4498,21 +4498,21 @@
       <c r="J90" s="121"/>
     </row>
     <row r="91" spans="2:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="144" t="s">
+      <c r="B91" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="C91" s="144"/>
-      <c r="D91" s="144"/>
-      <c r="E91" s="144"/>
-      <c r="F91" s="145"/>
-      <c r="G91" s="146" t="s">
+      <c r="C91" s="146"/>
+      <c r="D91" s="146"/>
+      <c r="E91" s="146"/>
+      <c r="F91" s="147"/>
+      <c r="G91" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="H91" s="148"/>
-      <c r="I91" s="146" t="s">
+      <c r="H91" s="150"/>
+      <c r="I91" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="J91" s="147"/>
+      <c r="J91" s="149"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B92" s="52"/>
@@ -4766,25 +4766,18 @@
       <c r="J121" s="101"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B122" s="139"/>
-      <c r="C122" s="139"/>
-      <c r="D122" s="139"/>
-      <c r="E122" s="139"/>
-      <c r="F122" s="139"/>
-      <c r="G122" s="139"/>
-      <c r="H122" s="139"/>
-      <c r="I122" s="139"/>
-      <c r="J122" s="139"/>
+      <c r="B122" s="141"/>
+      <c r="C122" s="141"/>
+      <c r="D122" s="141"/>
+      <c r="E122" s="141"/>
+      <c r="F122" s="141"/>
+      <c r="G122" s="141"/>
+      <c r="H122" s="141"/>
+      <c r="I122" s="141"/>
+      <c r="J122" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:J6"/>
     <mergeCell ref="B122:J122"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="I24:J24"/>
@@ -4797,6 +4790,13 @@
     <mergeCell ref="J78:K78"/>
     <mergeCell ref="C70:I70"/>
     <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="2" orientation="portrait" r:id="rId1"/>
@@ -5462,15 +5462,15 @@
   <sheetData>
     <row r="1" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
@@ -5488,39 +5488,39 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5554,10 +5554,10 @@
       <c r="I10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="125">
+      <c r="J10" s="129">
         <v>45107</v>
       </c>
-      <c r="K10" s="125"/>
+      <c r="K10" s="129"/>
     </row>
     <row r="11" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
@@ -5686,24 +5686,24 @@
     </row>
     <row r="24" spans="2:17" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="128" t="s">
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="127"/>
-      <c r="H25" s="129" t="s">
+      <c r="G25" s="131"/>
+      <c r="H25" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="130"/>
-      <c r="J25" s="131" t="s">
+      <c r="I25" s="134"/>
+      <c r="J25" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="132"/>
+      <c r="K25" s="136"/>
     </row>
     <row r="26" spans="2:17" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="37" t="s">
@@ -6130,17 +6130,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
@@ -6806,15 +6806,15 @@
   <sheetData>
     <row r="1" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
@@ -6832,39 +6832,39 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6898,10 +6898,10 @@
       <c r="I10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="125">
+      <c r="J10" s="129">
         <v>45079</v>
       </c>
-      <c r="K10" s="125"/>
+      <c r="K10" s="129"/>
     </row>
     <row r="11" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
@@ -7030,20 +7030,20 @@
     </row>
     <row r="24" spans="2:17" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="143" t="s">
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="145" t="s">
         <v>23</v>
       </c>
       <c r="G25" s="153"/>
-      <c r="H25" s="131" t="s">
+      <c r="H25" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="142"/>
+      <c r="I25" s="144"/>
     </row>
     <row r="26" spans="2:17" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="37" t="s">

--- a/templates/KTI_Discharge_Invoice.xlsx
+++ b/templates/KTI_Discharge_Invoice.xlsx
@@ -8,35 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12076D56-8082-4F54-9E5E-6B2BD3FA5D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883B47BB-D892-44A1-9304-2B0AE4004E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-23250" yWindow="3112" windowWidth="14385" windowHeight="7486" tabRatio="896" activeTab="1" xr2:uid="{A5E11D55-FD63-4C1B-A2BC-73BE53B894FE}"/>
+    <workbookView xWindow="-26047" yWindow="-98" windowWidth="26145" windowHeight="16996" tabRatio="896" xr2:uid="{A5E11D55-FD63-4C1B-A2BC-73BE53B894FE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Б.Нагаева хранение ТРК" sheetId="71" r:id="rId1"/>
-    <sheet name="Invoice_discharge" sheetId="70" r:id="rId2"/>
+    <sheet name="Invoice_discharge" sheetId="70" r:id="rId1"/>
+    <sheet name="Б.Нагаева хранение ТРК" sheetId="71" r:id="rId2"/>
     <sheet name="Б.Нагаева хранениеМСИ " sheetId="77" r:id="rId3"/>
     <sheet name="Б. Нагаева выгрузка МСИ010623" sheetId="69" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Инвойс_всего">Invoice_discharge!$J$40</definedName>
-    <definedName name="Инвойс_всего_п">Invoice_discharge!$H$107</definedName>
+    <definedName name="Инвойс_всего_п">Invoice_discharge!$J$117</definedName>
     <definedName name="Инвойс_выгрузка_дата">Invoice_discharge!$C$17</definedName>
+    <definedName name="Инвойс_выгрузка_дата_п">Invoice_discharge!$C$94</definedName>
     <definedName name="Инвойс_дата">Invoice_discharge!$J$10</definedName>
-    <definedName name="Инвойс_дата_п">Invoice_discharge!$J$78</definedName>
+    <definedName name="Инвойс_дата_п">Invoice_discharge!$J$88</definedName>
     <definedName name="Инвойс_компания">Invoice_discharge!$C$10</definedName>
-    <definedName name="Инвойс_компания_п">Invoice_discharge!$C$78</definedName>
+    <definedName name="Инвойс_компания_п">Invoice_discharge!$C$88</definedName>
     <definedName name="Инвойс_контракт">Invoice_discharge!$C$12</definedName>
-    <definedName name="Инвойс_контракт_п">Invoice_discharge!$C$80</definedName>
+    <definedName name="Инвойс_контракт_п">Invoice_discharge!$C$90</definedName>
     <definedName name="Инвойс_массив">Invoice_discharge!$B$26</definedName>
-    <definedName name="Инвойс_массив_п">Invoice_discharge!$B$93</definedName>
+    <definedName name="Инвойс_массив_п">Invoice_discharge!$B$103</definedName>
     <definedName name="Инвойс_номер">Invoice_discharge!$E$8</definedName>
-    <definedName name="Инвойс_номер_п">Invoice_discharge!$E$76</definedName>
+    <definedName name="Инвойс_номер_п">Invoice_discharge!$E$86</definedName>
     <definedName name="Инвойс_соглашение">Invoice_discharge!$C$21</definedName>
-    <definedName name="Инвойс_соглашение_п">Invoice_discharge!$C$88</definedName>
+    <definedName name="Инвойс_соглашение_п">Invoice_discharge!$C$98</definedName>
+    <definedName name="Инвойс_таблица_заголовок">Invoice_discharge!$B$24</definedName>
+    <definedName name="Инвойс_таблица_заголовок_п">Invoice_discharge!$B$101</definedName>
     <definedName name="Инвойс_транспорт">Invoice_discharge!$C$19</definedName>
-    <definedName name="Инвойс_транспорт_п">Invoice_discharge!$C$86</definedName>
-    <definedName name="Инвойсс_выгрузка_дата_п">Invoice_discharge!$C$84</definedName>
+    <definedName name="Инвойс_транспорт_п">Invoice_discharge!$C$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="76">
   <si>
     <t xml:space="preserve">PROFORMA INVOICE No. </t>
   </si>
@@ -286,24 +288,6 @@
     <t>Дополнительное соглашение 31 от 16 мая 2023 г.</t>
   </si>
   <si>
-    <t>57,280 mt</t>
-  </si>
-  <si>
-    <t>МФТ "Морской Волк"  Рыбная мука белая</t>
-  </si>
-  <si>
-    <t>МФТ "Морской Волк"  Икра минтая мороженая (MSC)</t>
-  </si>
-  <si>
-    <t>32,7375 тн</t>
-  </si>
-  <si>
-    <t>59,0000 тн</t>
-  </si>
-  <si>
-    <t>114,1650 тн</t>
-  </si>
-  <si>
     <t>Описание</t>
   </si>
   <si>
@@ -317,6 +301,12 @@
   </si>
   <si>
     <t xml:space="preserve">ДАТА:  </t>
+  </si>
+  <si>
+    <t>$   123,00</t>
+  </si>
+  <si>
+    <t>$   21 323,00</t>
   </si>
 </sst>
 </file>
@@ -741,7 +731,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -899,9 +889,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -922,9 +909,6 @@
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1005,6 +989,65 @@
     <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1014,7 +1057,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1033,57 +1075,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1132,7 +1125,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7D7890-730F-4FC2-86F6-56988C0300D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF16009D-7FAF-46EB-B76B-031F35176AFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1155,8 +1148,82 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="400050" y="47625"/>
-          <a:ext cx="638175" cy="400050"/>
+          <a:off x="414338" y="47625"/>
+          <a:ext cx="638175" cy="404813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1014412</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD745CE9-5975-4978-9670-F3614487F1C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="638175" y="12244387"/>
+          <a:ext cx="638175" cy="404813"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1211,7 +1278,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF16009D-7FAF-46EB-B76B-031F35176AFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7D7890-730F-4FC2-86F6-56988C0300D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,1310 +1791,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4148669-BC65-4030-870D-CAF6F562DA97}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="B1:Q59"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.234375" customWidth="1"/>
-    <col min="2" max="2" width="11.1171875" customWidth="1"/>
-    <col min="3" max="3" width="6.234375" customWidth="1"/>
-    <col min="4" max="4" width="9.1171875" customWidth="1"/>
-    <col min="7" max="7" width="8.87890625" customWidth="1"/>
-    <col min="8" max="8" width="9.1171875" customWidth="1"/>
-    <col min="9" max="9" width="10.1171875" customWidth="1"/>
-    <col min="10" max="10" width="7.46875" customWidth="1"/>
-    <col min="11" max="11" width="9.234375" customWidth="1"/>
-    <col min="13" max="13" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="3.234375" customWidth="1"/>
-    <col min="258" max="258" width="11.1171875" customWidth="1"/>
-    <col min="259" max="259" width="6.234375" customWidth="1"/>
-    <col min="260" max="260" width="9.1171875" customWidth="1"/>
-    <col min="263" max="263" width="8" customWidth="1"/>
-    <col min="264" max="264" width="9.1171875" customWidth="1"/>
-    <col min="265" max="265" width="10.1171875" customWidth="1"/>
-    <col min="266" max="266" width="7.46875" customWidth="1"/>
-    <col min="267" max="267" width="9.234375" customWidth="1"/>
-    <col min="269" max="269" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="3.234375" customWidth="1"/>
-    <col min="514" max="514" width="11.1171875" customWidth="1"/>
-    <col min="515" max="515" width="6.234375" customWidth="1"/>
-    <col min="516" max="516" width="9.1171875" customWidth="1"/>
-    <col min="519" max="519" width="8" customWidth="1"/>
-    <col min="520" max="520" width="9.1171875" customWidth="1"/>
-    <col min="521" max="521" width="10.1171875" customWidth="1"/>
-    <col min="522" max="522" width="7.46875" customWidth="1"/>
-    <col min="523" max="523" width="9.234375" customWidth="1"/>
-    <col min="525" max="525" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="3.234375" customWidth="1"/>
-    <col min="770" max="770" width="11.1171875" customWidth="1"/>
-    <col min="771" max="771" width="6.234375" customWidth="1"/>
-    <col min="772" max="772" width="9.1171875" customWidth="1"/>
-    <col min="775" max="775" width="8" customWidth="1"/>
-    <col min="776" max="776" width="9.1171875" customWidth="1"/>
-    <col min="777" max="777" width="10.1171875" customWidth="1"/>
-    <col min="778" max="778" width="7.46875" customWidth="1"/>
-    <col min="779" max="779" width="9.234375" customWidth="1"/>
-    <col min="781" max="781" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="3.234375" customWidth="1"/>
-    <col min="1026" max="1026" width="11.1171875" customWidth="1"/>
-    <col min="1027" max="1027" width="6.234375" customWidth="1"/>
-    <col min="1028" max="1028" width="9.1171875" customWidth="1"/>
-    <col min="1031" max="1031" width="8" customWidth="1"/>
-    <col min="1032" max="1032" width="9.1171875" customWidth="1"/>
-    <col min="1033" max="1033" width="10.1171875" customWidth="1"/>
-    <col min="1034" max="1034" width="7.46875" customWidth="1"/>
-    <col min="1035" max="1035" width="9.234375" customWidth="1"/>
-    <col min="1037" max="1037" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="3.234375" customWidth="1"/>
-    <col min="1282" max="1282" width="11.1171875" customWidth="1"/>
-    <col min="1283" max="1283" width="6.234375" customWidth="1"/>
-    <col min="1284" max="1284" width="9.1171875" customWidth="1"/>
-    <col min="1287" max="1287" width="8" customWidth="1"/>
-    <col min="1288" max="1288" width="9.1171875" customWidth="1"/>
-    <col min="1289" max="1289" width="10.1171875" customWidth="1"/>
-    <col min="1290" max="1290" width="7.46875" customWidth="1"/>
-    <col min="1291" max="1291" width="9.234375" customWidth="1"/>
-    <col min="1293" max="1293" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="3.234375" customWidth="1"/>
-    <col min="1538" max="1538" width="11.1171875" customWidth="1"/>
-    <col min="1539" max="1539" width="6.234375" customWidth="1"/>
-    <col min="1540" max="1540" width="9.1171875" customWidth="1"/>
-    <col min="1543" max="1543" width="8" customWidth="1"/>
-    <col min="1544" max="1544" width="9.1171875" customWidth="1"/>
-    <col min="1545" max="1545" width="10.1171875" customWidth="1"/>
-    <col min="1546" max="1546" width="7.46875" customWidth="1"/>
-    <col min="1547" max="1547" width="9.234375" customWidth="1"/>
-    <col min="1549" max="1549" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="3.234375" customWidth="1"/>
-    <col min="1794" max="1794" width="11.1171875" customWidth="1"/>
-    <col min="1795" max="1795" width="6.234375" customWidth="1"/>
-    <col min="1796" max="1796" width="9.1171875" customWidth="1"/>
-    <col min="1799" max="1799" width="8" customWidth="1"/>
-    <col min="1800" max="1800" width="9.1171875" customWidth="1"/>
-    <col min="1801" max="1801" width="10.1171875" customWidth="1"/>
-    <col min="1802" max="1802" width="7.46875" customWidth="1"/>
-    <col min="1803" max="1803" width="9.234375" customWidth="1"/>
-    <col min="1805" max="1805" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="3.234375" customWidth="1"/>
-    <col min="2050" max="2050" width="11.1171875" customWidth="1"/>
-    <col min="2051" max="2051" width="6.234375" customWidth="1"/>
-    <col min="2052" max="2052" width="9.1171875" customWidth="1"/>
-    <col min="2055" max="2055" width="8" customWidth="1"/>
-    <col min="2056" max="2056" width="9.1171875" customWidth="1"/>
-    <col min="2057" max="2057" width="10.1171875" customWidth="1"/>
-    <col min="2058" max="2058" width="7.46875" customWidth="1"/>
-    <col min="2059" max="2059" width="9.234375" customWidth="1"/>
-    <col min="2061" max="2061" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="3.234375" customWidth="1"/>
-    <col min="2306" max="2306" width="11.1171875" customWidth="1"/>
-    <col min="2307" max="2307" width="6.234375" customWidth="1"/>
-    <col min="2308" max="2308" width="9.1171875" customWidth="1"/>
-    <col min="2311" max="2311" width="8" customWidth="1"/>
-    <col min="2312" max="2312" width="9.1171875" customWidth="1"/>
-    <col min="2313" max="2313" width="10.1171875" customWidth="1"/>
-    <col min="2314" max="2314" width="7.46875" customWidth="1"/>
-    <col min="2315" max="2315" width="9.234375" customWidth="1"/>
-    <col min="2317" max="2317" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="3.234375" customWidth="1"/>
-    <col min="2562" max="2562" width="11.1171875" customWidth="1"/>
-    <col min="2563" max="2563" width="6.234375" customWidth="1"/>
-    <col min="2564" max="2564" width="9.1171875" customWidth="1"/>
-    <col min="2567" max="2567" width="8" customWidth="1"/>
-    <col min="2568" max="2568" width="9.1171875" customWidth="1"/>
-    <col min="2569" max="2569" width="10.1171875" customWidth="1"/>
-    <col min="2570" max="2570" width="7.46875" customWidth="1"/>
-    <col min="2571" max="2571" width="9.234375" customWidth="1"/>
-    <col min="2573" max="2573" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="3.234375" customWidth="1"/>
-    <col min="2818" max="2818" width="11.1171875" customWidth="1"/>
-    <col min="2819" max="2819" width="6.234375" customWidth="1"/>
-    <col min="2820" max="2820" width="9.1171875" customWidth="1"/>
-    <col min="2823" max="2823" width="8" customWidth="1"/>
-    <col min="2824" max="2824" width="9.1171875" customWidth="1"/>
-    <col min="2825" max="2825" width="10.1171875" customWidth="1"/>
-    <col min="2826" max="2826" width="7.46875" customWidth="1"/>
-    <col min="2827" max="2827" width="9.234375" customWidth="1"/>
-    <col min="2829" max="2829" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="3.234375" customWidth="1"/>
-    <col min="3074" max="3074" width="11.1171875" customWidth="1"/>
-    <col min="3075" max="3075" width="6.234375" customWidth="1"/>
-    <col min="3076" max="3076" width="9.1171875" customWidth="1"/>
-    <col min="3079" max="3079" width="8" customWidth="1"/>
-    <col min="3080" max="3080" width="9.1171875" customWidth="1"/>
-    <col min="3081" max="3081" width="10.1171875" customWidth="1"/>
-    <col min="3082" max="3082" width="7.46875" customWidth="1"/>
-    <col min="3083" max="3083" width="9.234375" customWidth="1"/>
-    <col min="3085" max="3085" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="3.234375" customWidth="1"/>
-    <col min="3330" max="3330" width="11.1171875" customWidth="1"/>
-    <col min="3331" max="3331" width="6.234375" customWidth="1"/>
-    <col min="3332" max="3332" width="9.1171875" customWidth="1"/>
-    <col min="3335" max="3335" width="8" customWidth="1"/>
-    <col min="3336" max="3336" width="9.1171875" customWidth="1"/>
-    <col min="3337" max="3337" width="10.1171875" customWidth="1"/>
-    <col min="3338" max="3338" width="7.46875" customWidth="1"/>
-    <col min="3339" max="3339" width="9.234375" customWidth="1"/>
-    <col min="3341" max="3341" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="3.234375" customWidth="1"/>
-    <col min="3586" max="3586" width="11.1171875" customWidth="1"/>
-    <col min="3587" max="3587" width="6.234375" customWidth="1"/>
-    <col min="3588" max="3588" width="9.1171875" customWidth="1"/>
-    <col min="3591" max="3591" width="8" customWidth="1"/>
-    <col min="3592" max="3592" width="9.1171875" customWidth="1"/>
-    <col min="3593" max="3593" width="10.1171875" customWidth="1"/>
-    <col min="3594" max="3594" width="7.46875" customWidth="1"/>
-    <col min="3595" max="3595" width="9.234375" customWidth="1"/>
-    <col min="3597" max="3597" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="3.234375" customWidth="1"/>
-    <col min="3842" max="3842" width="11.1171875" customWidth="1"/>
-    <col min="3843" max="3843" width="6.234375" customWidth="1"/>
-    <col min="3844" max="3844" width="9.1171875" customWidth="1"/>
-    <col min="3847" max="3847" width="8" customWidth="1"/>
-    <col min="3848" max="3848" width="9.1171875" customWidth="1"/>
-    <col min="3849" max="3849" width="10.1171875" customWidth="1"/>
-    <col min="3850" max="3850" width="7.46875" customWidth="1"/>
-    <col min="3851" max="3851" width="9.234375" customWidth="1"/>
-    <col min="3853" max="3853" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="3.234375" customWidth="1"/>
-    <col min="4098" max="4098" width="11.1171875" customWidth="1"/>
-    <col min="4099" max="4099" width="6.234375" customWidth="1"/>
-    <col min="4100" max="4100" width="9.1171875" customWidth="1"/>
-    <col min="4103" max="4103" width="8" customWidth="1"/>
-    <col min="4104" max="4104" width="9.1171875" customWidth="1"/>
-    <col min="4105" max="4105" width="10.1171875" customWidth="1"/>
-    <col min="4106" max="4106" width="7.46875" customWidth="1"/>
-    <col min="4107" max="4107" width="9.234375" customWidth="1"/>
-    <col min="4109" max="4109" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="3.234375" customWidth="1"/>
-    <col min="4354" max="4354" width="11.1171875" customWidth="1"/>
-    <col min="4355" max="4355" width="6.234375" customWidth="1"/>
-    <col min="4356" max="4356" width="9.1171875" customWidth="1"/>
-    <col min="4359" max="4359" width="8" customWidth="1"/>
-    <col min="4360" max="4360" width="9.1171875" customWidth="1"/>
-    <col min="4361" max="4361" width="10.1171875" customWidth="1"/>
-    <col min="4362" max="4362" width="7.46875" customWidth="1"/>
-    <col min="4363" max="4363" width="9.234375" customWidth="1"/>
-    <col min="4365" max="4365" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="3.234375" customWidth="1"/>
-    <col min="4610" max="4610" width="11.1171875" customWidth="1"/>
-    <col min="4611" max="4611" width="6.234375" customWidth="1"/>
-    <col min="4612" max="4612" width="9.1171875" customWidth="1"/>
-    <col min="4615" max="4615" width="8" customWidth="1"/>
-    <col min="4616" max="4616" width="9.1171875" customWidth="1"/>
-    <col min="4617" max="4617" width="10.1171875" customWidth="1"/>
-    <col min="4618" max="4618" width="7.46875" customWidth="1"/>
-    <col min="4619" max="4619" width="9.234375" customWidth="1"/>
-    <col min="4621" max="4621" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="3.234375" customWidth="1"/>
-    <col min="4866" max="4866" width="11.1171875" customWidth="1"/>
-    <col min="4867" max="4867" width="6.234375" customWidth="1"/>
-    <col min="4868" max="4868" width="9.1171875" customWidth="1"/>
-    <col min="4871" max="4871" width="8" customWidth="1"/>
-    <col min="4872" max="4872" width="9.1171875" customWidth="1"/>
-    <col min="4873" max="4873" width="10.1171875" customWidth="1"/>
-    <col min="4874" max="4874" width="7.46875" customWidth="1"/>
-    <col min="4875" max="4875" width="9.234375" customWidth="1"/>
-    <col min="4877" max="4877" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="3.234375" customWidth="1"/>
-    <col min="5122" max="5122" width="11.1171875" customWidth="1"/>
-    <col min="5123" max="5123" width="6.234375" customWidth="1"/>
-    <col min="5124" max="5124" width="9.1171875" customWidth="1"/>
-    <col min="5127" max="5127" width="8" customWidth="1"/>
-    <col min="5128" max="5128" width="9.1171875" customWidth="1"/>
-    <col min="5129" max="5129" width="10.1171875" customWidth="1"/>
-    <col min="5130" max="5130" width="7.46875" customWidth="1"/>
-    <col min="5131" max="5131" width="9.234375" customWidth="1"/>
-    <col min="5133" max="5133" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="3.234375" customWidth="1"/>
-    <col min="5378" max="5378" width="11.1171875" customWidth="1"/>
-    <col min="5379" max="5379" width="6.234375" customWidth="1"/>
-    <col min="5380" max="5380" width="9.1171875" customWidth="1"/>
-    <col min="5383" max="5383" width="8" customWidth="1"/>
-    <col min="5384" max="5384" width="9.1171875" customWidth="1"/>
-    <col min="5385" max="5385" width="10.1171875" customWidth="1"/>
-    <col min="5386" max="5386" width="7.46875" customWidth="1"/>
-    <col min="5387" max="5387" width="9.234375" customWidth="1"/>
-    <col min="5389" max="5389" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="3.234375" customWidth="1"/>
-    <col min="5634" max="5634" width="11.1171875" customWidth="1"/>
-    <col min="5635" max="5635" width="6.234375" customWidth="1"/>
-    <col min="5636" max="5636" width="9.1171875" customWidth="1"/>
-    <col min="5639" max="5639" width="8" customWidth="1"/>
-    <col min="5640" max="5640" width="9.1171875" customWidth="1"/>
-    <col min="5641" max="5641" width="10.1171875" customWidth="1"/>
-    <col min="5642" max="5642" width="7.46875" customWidth="1"/>
-    <col min="5643" max="5643" width="9.234375" customWidth="1"/>
-    <col min="5645" max="5645" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="3.234375" customWidth="1"/>
-    <col min="5890" max="5890" width="11.1171875" customWidth="1"/>
-    <col min="5891" max="5891" width="6.234375" customWidth="1"/>
-    <col min="5892" max="5892" width="9.1171875" customWidth="1"/>
-    <col min="5895" max="5895" width="8" customWidth="1"/>
-    <col min="5896" max="5896" width="9.1171875" customWidth="1"/>
-    <col min="5897" max="5897" width="10.1171875" customWidth="1"/>
-    <col min="5898" max="5898" width="7.46875" customWidth="1"/>
-    <col min="5899" max="5899" width="9.234375" customWidth="1"/>
-    <col min="5901" max="5901" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="3.234375" customWidth="1"/>
-    <col min="6146" max="6146" width="11.1171875" customWidth="1"/>
-    <col min="6147" max="6147" width="6.234375" customWidth="1"/>
-    <col min="6148" max="6148" width="9.1171875" customWidth="1"/>
-    <col min="6151" max="6151" width="8" customWidth="1"/>
-    <col min="6152" max="6152" width="9.1171875" customWidth="1"/>
-    <col min="6153" max="6153" width="10.1171875" customWidth="1"/>
-    <col min="6154" max="6154" width="7.46875" customWidth="1"/>
-    <col min="6155" max="6155" width="9.234375" customWidth="1"/>
-    <col min="6157" max="6157" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="3.234375" customWidth="1"/>
-    <col min="6402" max="6402" width="11.1171875" customWidth="1"/>
-    <col min="6403" max="6403" width="6.234375" customWidth="1"/>
-    <col min="6404" max="6404" width="9.1171875" customWidth="1"/>
-    <col min="6407" max="6407" width="8" customWidth="1"/>
-    <col min="6408" max="6408" width="9.1171875" customWidth="1"/>
-    <col min="6409" max="6409" width="10.1171875" customWidth="1"/>
-    <col min="6410" max="6410" width="7.46875" customWidth="1"/>
-    <col min="6411" max="6411" width="9.234375" customWidth="1"/>
-    <col min="6413" max="6413" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="3.234375" customWidth="1"/>
-    <col min="6658" max="6658" width="11.1171875" customWidth="1"/>
-    <col min="6659" max="6659" width="6.234375" customWidth="1"/>
-    <col min="6660" max="6660" width="9.1171875" customWidth="1"/>
-    <col min="6663" max="6663" width="8" customWidth="1"/>
-    <col min="6664" max="6664" width="9.1171875" customWidth="1"/>
-    <col min="6665" max="6665" width="10.1171875" customWidth="1"/>
-    <col min="6666" max="6666" width="7.46875" customWidth="1"/>
-    <col min="6667" max="6667" width="9.234375" customWidth="1"/>
-    <col min="6669" max="6669" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="3.234375" customWidth="1"/>
-    <col min="6914" max="6914" width="11.1171875" customWidth="1"/>
-    <col min="6915" max="6915" width="6.234375" customWidth="1"/>
-    <col min="6916" max="6916" width="9.1171875" customWidth="1"/>
-    <col min="6919" max="6919" width="8" customWidth="1"/>
-    <col min="6920" max="6920" width="9.1171875" customWidth="1"/>
-    <col min="6921" max="6921" width="10.1171875" customWidth="1"/>
-    <col min="6922" max="6922" width="7.46875" customWidth="1"/>
-    <col min="6923" max="6923" width="9.234375" customWidth="1"/>
-    <col min="6925" max="6925" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="3.234375" customWidth="1"/>
-    <col min="7170" max="7170" width="11.1171875" customWidth="1"/>
-    <col min="7171" max="7171" width="6.234375" customWidth="1"/>
-    <col min="7172" max="7172" width="9.1171875" customWidth="1"/>
-    <col min="7175" max="7175" width="8" customWidth="1"/>
-    <col min="7176" max="7176" width="9.1171875" customWidth="1"/>
-    <col min="7177" max="7177" width="10.1171875" customWidth="1"/>
-    <col min="7178" max="7178" width="7.46875" customWidth="1"/>
-    <col min="7179" max="7179" width="9.234375" customWidth="1"/>
-    <col min="7181" max="7181" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="3.234375" customWidth="1"/>
-    <col min="7426" max="7426" width="11.1171875" customWidth="1"/>
-    <col min="7427" max="7427" width="6.234375" customWidth="1"/>
-    <col min="7428" max="7428" width="9.1171875" customWidth="1"/>
-    <col min="7431" max="7431" width="8" customWidth="1"/>
-    <col min="7432" max="7432" width="9.1171875" customWidth="1"/>
-    <col min="7433" max="7433" width="10.1171875" customWidth="1"/>
-    <col min="7434" max="7434" width="7.46875" customWidth="1"/>
-    <col min="7435" max="7435" width="9.234375" customWidth="1"/>
-    <col min="7437" max="7437" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="3.234375" customWidth="1"/>
-    <col min="7682" max="7682" width="11.1171875" customWidth="1"/>
-    <col min="7683" max="7683" width="6.234375" customWidth="1"/>
-    <col min="7684" max="7684" width="9.1171875" customWidth="1"/>
-    <col min="7687" max="7687" width="8" customWidth="1"/>
-    <col min="7688" max="7688" width="9.1171875" customWidth="1"/>
-    <col min="7689" max="7689" width="10.1171875" customWidth="1"/>
-    <col min="7690" max="7690" width="7.46875" customWidth="1"/>
-    <col min="7691" max="7691" width="9.234375" customWidth="1"/>
-    <col min="7693" max="7693" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="3.234375" customWidth="1"/>
-    <col min="7938" max="7938" width="11.1171875" customWidth="1"/>
-    <col min="7939" max="7939" width="6.234375" customWidth="1"/>
-    <col min="7940" max="7940" width="9.1171875" customWidth="1"/>
-    <col min="7943" max="7943" width="8" customWidth="1"/>
-    <col min="7944" max="7944" width="9.1171875" customWidth="1"/>
-    <col min="7945" max="7945" width="10.1171875" customWidth="1"/>
-    <col min="7946" max="7946" width="7.46875" customWidth="1"/>
-    <col min="7947" max="7947" width="9.234375" customWidth="1"/>
-    <col min="7949" max="7949" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="3.234375" customWidth="1"/>
-    <col min="8194" max="8194" width="11.1171875" customWidth="1"/>
-    <col min="8195" max="8195" width="6.234375" customWidth="1"/>
-    <col min="8196" max="8196" width="9.1171875" customWidth="1"/>
-    <col min="8199" max="8199" width="8" customWidth="1"/>
-    <col min="8200" max="8200" width="9.1171875" customWidth="1"/>
-    <col min="8201" max="8201" width="10.1171875" customWidth="1"/>
-    <col min="8202" max="8202" width="7.46875" customWidth="1"/>
-    <col min="8203" max="8203" width="9.234375" customWidth="1"/>
-    <col min="8205" max="8205" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="3.234375" customWidth="1"/>
-    <col min="8450" max="8450" width="11.1171875" customWidth="1"/>
-    <col min="8451" max="8451" width="6.234375" customWidth="1"/>
-    <col min="8452" max="8452" width="9.1171875" customWidth="1"/>
-    <col min="8455" max="8455" width="8" customWidth="1"/>
-    <col min="8456" max="8456" width="9.1171875" customWidth="1"/>
-    <col min="8457" max="8457" width="10.1171875" customWidth="1"/>
-    <col min="8458" max="8458" width="7.46875" customWidth="1"/>
-    <col min="8459" max="8459" width="9.234375" customWidth="1"/>
-    <col min="8461" max="8461" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="3.234375" customWidth="1"/>
-    <col min="8706" max="8706" width="11.1171875" customWidth="1"/>
-    <col min="8707" max="8707" width="6.234375" customWidth="1"/>
-    <col min="8708" max="8708" width="9.1171875" customWidth="1"/>
-    <col min="8711" max="8711" width="8" customWidth="1"/>
-    <col min="8712" max="8712" width="9.1171875" customWidth="1"/>
-    <col min="8713" max="8713" width="10.1171875" customWidth="1"/>
-    <col min="8714" max="8714" width="7.46875" customWidth="1"/>
-    <col min="8715" max="8715" width="9.234375" customWidth="1"/>
-    <col min="8717" max="8717" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="3.234375" customWidth="1"/>
-    <col min="8962" max="8962" width="11.1171875" customWidth="1"/>
-    <col min="8963" max="8963" width="6.234375" customWidth="1"/>
-    <col min="8964" max="8964" width="9.1171875" customWidth="1"/>
-    <col min="8967" max="8967" width="8" customWidth="1"/>
-    <col min="8968" max="8968" width="9.1171875" customWidth="1"/>
-    <col min="8969" max="8969" width="10.1171875" customWidth="1"/>
-    <col min="8970" max="8970" width="7.46875" customWidth="1"/>
-    <col min="8971" max="8971" width="9.234375" customWidth="1"/>
-    <col min="8973" max="8973" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="3.234375" customWidth="1"/>
-    <col min="9218" max="9218" width="11.1171875" customWidth="1"/>
-    <col min="9219" max="9219" width="6.234375" customWidth="1"/>
-    <col min="9220" max="9220" width="9.1171875" customWidth="1"/>
-    <col min="9223" max="9223" width="8" customWidth="1"/>
-    <col min="9224" max="9224" width="9.1171875" customWidth="1"/>
-    <col min="9225" max="9225" width="10.1171875" customWidth="1"/>
-    <col min="9226" max="9226" width="7.46875" customWidth="1"/>
-    <col min="9227" max="9227" width="9.234375" customWidth="1"/>
-    <col min="9229" max="9229" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="3.234375" customWidth="1"/>
-    <col min="9474" max="9474" width="11.1171875" customWidth="1"/>
-    <col min="9475" max="9475" width="6.234375" customWidth="1"/>
-    <col min="9476" max="9476" width="9.1171875" customWidth="1"/>
-    <col min="9479" max="9479" width="8" customWidth="1"/>
-    <col min="9480" max="9480" width="9.1171875" customWidth="1"/>
-    <col min="9481" max="9481" width="10.1171875" customWidth="1"/>
-    <col min="9482" max="9482" width="7.46875" customWidth="1"/>
-    <col min="9483" max="9483" width="9.234375" customWidth="1"/>
-    <col min="9485" max="9485" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="3.234375" customWidth="1"/>
-    <col min="9730" max="9730" width="11.1171875" customWidth="1"/>
-    <col min="9731" max="9731" width="6.234375" customWidth="1"/>
-    <col min="9732" max="9732" width="9.1171875" customWidth="1"/>
-    <col min="9735" max="9735" width="8" customWidth="1"/>
-    <col min="9736" max="9736" width="9.1171875" customWidth="1"/>
-    <col min="9737" max="9737" width="10.1171875" customWidth="1"/>
-    <col min="9738" max="9738" width="7.46875" customWidth="1"/>
-    <col min="9739" max="9739" width="9.234375" customWidth="1"/>
-    <col min="9741" max="9741" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="3.234375" customWidth="1"/>
-    <col min="9986" max="9986" width="11.1171875" customWidth="1"/>
-    <col min="9987" max="9987" width="6.234375" customWidth="1"/>
-    <col min="9988" max="9988" width="9.1171875" customWidth="1"/>
-    <col min="9991" max="9991" width="8" customWidth="1"/>
-    <col min="9992" max="9992" width="9.1171875" customWidth="1"/>
-    <col min="9993" max="9993" width="10.1171875" customWidth="1"/>
-    <col min="9994" max="9994" width="7.46875" customWidth="1"/>
-    <col min="9995" max="9995" width="9.234375" customWidth="1"/>
-    <col min="9997" max="9997" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="3.234375" customWidth="1"/>
-    <col min="10242" max="10242" width="11.1171875" customWidth="1"/>
-    <col min="10243" max="10243" width="6.234375" customWidth="1"/>
-    <col min="10244" max="10244" width="9.1171875" customWidth="1"/>
-    <col min="10247" max="10247" width="8" customWidth="1"/>
-    <col min="10248" max="10248" width="9.1171875" customWidth="1"/>
-    <col min="10249" max="10249" width="10.1171875" customWidth="1"/>
-    <col min="10250" max="10250" width="7.46875" customWidth="1"/>
-    <col min="10251" max="10251" width="9.234375" customWidth="1"/>
-    <col min="10253" max="10253" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="3.234375" customWidth="1"/>
-    <col min="10498" max="10498" width="11.1171875" customWidth="1"/>
-    <col min="10499" max="10499" width="6.234375" customWidth="1"/>
-    <col min="10500" max="10500" width="9.1171875" customWidth="1"/>
-    <col min="10503" max="10503" width="8" customWidth="1"/>
-    <col min="10504" max="10504" width="9.1171875" customWidth="1"/>
-    <col min="10505" max="10505" width="10.1171875" customWidth="1"/>
-    <col min="10506" max="10506" width="7.46875" customWidth="1"/>
-    <col min="10507" max="10507" width="9.234375" customWidth="1"/>
-    <col min="10509" max="10509" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="3.234375" customWidth="1"/>
-    <col min="10754" max="10754" width="11.1171875" customWidth="1"/>
-    <col min="10755" max="10755" width="6.234375" customWidth="1"/>
-    <col min="10756" max="10756" width="9.1171875" customWidth="1"/>
-    <col min="10759" max="10759" width="8" customWidth="1"/>
-    <col min="10760" max="10760" width="9.1171875" customWidth="1"/>
-    <col min="10761" max="10761" width="10.1171875" customWidth="1"/>
-    <col min="10762" max="10762" width="7.46875" customWidth="1"/>
-    <col min="10763" max="10763" width="9.234375" customWidth="1"/>
-    <col min="10765" max="10765" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="3.234375" customWidth="1"/>
-    <col min="11010" max="11010" width="11.1171875" customWidth="1"/>
-    <col min="11011" max="11011" width="6.234375" customWidth="1"/>
-    <col min="11012" max="11012" width="9.1171875" customWidth="1"/>
-    <col min="11015" max="11015" width="8" customWidth="1"/>
-    <col min="11016" max="11016" width="9.1171875" customWidth="1"/>
-    <col min="11017" max="11017" width="10.1171875" customWidth="1"/>
-    <col min="11018" max="11018" width="7.46875" customWidth="1"/>
-    <col min="11019" max="11019" width="9.234375" customWidth="1"/>
-    <col min="11021" max="11021" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="3.234375" customWidth="1"/>
-    <col min="11266" max="11266" width="11.1171875" customWidth="1"/>
-    <col min="11267" max="11267" width="6.234375" customWidth="1"/>
-    <col min="11268" max="11268" width="9.1171875" customWidth="1"/>
-    <col min="11271" max="11271" width="8" customWidth="1"/>
-    <col min="11272" max="11272" width="9.1171875" customWidth="1"/>
-    <col min="11273" max="11273" width="10.1171875" customWidth="1"/>
-    <col min="11274" max="11274" width="7.46875" customWidth="1"/>
-    <col min="11275" max="11275" width="9.234375" customWidth="1"/>
-    <col min="11277" max="11277" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="3.234375" customWidth="1"/>
-    <col min="11522" max="11522" width="11.1171875" customWidth="1"/>
-    <col min="11523" max="11523" width="6.234375" customWidth="1"/>
-    <col min="11524" max="11524" width="9.1171875" customWidth="1"/>
-    <col min="11527" max="11527" width="8" customWidth="1"/>
-    <col min="11528" max="11528" width="9.1171875" customWidth="1"/>
-    <col min="11529" max="11529" width="10.1171875" customWidth="1"/>
-    <col min="11530" max="11530" width="7.46875" customWidth="1"/>
-    <col min="11531" max="11531" width="9.234375" customWidth="1"/>
-    <col min="11533" max="11533" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="3.234375" customWidth="1"/>
-    <col min="11778" max="11778" width="11.1171875" customWidth="1"/>
-    <col min="11779" max="11779" width="6.234375" customWidth="1"/>
-    <col min="11780" max="11780" width="9.1171875" customWidth="1"/>
-    <col min="11783" max="11783" width="8" customWidth="1"/>
-    <col min="11784" max="11784" width="9.1171875" customWidth="1"/>
-    <col min="11785" max="11785" width="10.1171875" customWidth="1"/>
-    <col min="11786" max="11786" width="7.46875" customWidth="1"/>
-    <col min="11787" max="11787" width="9.234375" customWidth="1"/>
-    <col min="11789" max="11789" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="3.234375" customWidth="1"/>
-    <col min="12034" max="12034" width="11.1171875" customWidth="1"/>
-    <col min="12035" max="12035" width="6.234375" customWidth="1"/>
-    <col min="12036" max="12036" width="9.1171875" customWidth="1"/>
-    <col min="12039" max="12039" width="8" customWidth="1"/>
-    <col min="12040" max="12040" width="9.1171875" customWidth="1"/>
-    <col min="12041" max="12041" width="10.1171875" customWidth="1"/>
-    <col min="12042" max="12042" width="7.46875" customWidth="1"/>
-    <col min="12043" max="12043" width="9.234375" customWidth="1"/>
-    <col min="12045" max="12045" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="3.234375" customWidth="1"/>
-    <col min="12290" max="12290" width="11.1171875" customWidth="1"/>
-    <col min="12291" max="12291" width="6.234375" customWidth="1"/>
-    <col min="12292" max="12292" width="9.1171875" customWidth="1"/>
-    <col min="12295" max="12295" width="8" customWidth="1"/>
-    <col min="12296" max="12296" width="9.1171875" customWidth="1"/>
-    <col min="12297" max="12297" width="10.1171875" customWidth="1"/>
-    <col min="12298" max="12298" width="7.46875" customWidth="1"/>
-    <col min="12299" max="12299" width="9.234375" customWidth="1"/>
-    <col min="12301" max="12301" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="3.234375" customWidth="1"/>
-    <col min="12546" max="12546" width="11.1171875" customWidth="1"/>
-    <col min="12547" max="12547" width="6.234375" customWidth="1"/>
-    <col min="12548" max="12548" width="9.1171875" customWidth="1"/>
-    <col min="12551" max="12551" width="8" customWidth="1"/>
-    <col min="12552" max="12552" width="9.1171875" customWidth="1"/>
-    <col min="12553" max="12553" width="10.1171875" customWidth="1"/>
-    <col min="12554" max="12554" width="7.46875" customWidth="1"/>
-    <col min="12555" max="12555" width="9.234375" customWidth="1"/>
-    <col min="12557" max="12557" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="3.234375" customWidth="1"/>
-    <col min="12802" max="12802" width="11.1171875" customWidth="1"/>
-    <col min="12803" max="12803" width="6.234375" customWidth="1"/>
-    <col min="12804" max="12804" width="9.1171875" customWidth="1"/>
-    <col min="12807" max="12807" width="8" customWidth="1"/>
-    <col min="12808" max="12808" width="9.1171875" customWidth="1"/>
-    <col min="12809" max="12809" width="10.1171875" customWidth="1"/>
-    <col min="12810" max="12810" width="7.46875" customWidth="1"/>
-    <col min="12811" max="12811" width="9.234375" customWidth="1"/>
-    <col min="12813" max="12813" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="3.234375" customWidth="1"/>
-    <col min="13058" max="13058" width="11.1171875" customWidth="1"/>
-    <col min="13059" max="13059" width="6.234375" customWidth="1"/>
-    <col min="13060" max="13060" width="9.1171875" customWidth="1"/>
-    <col min="13063" max="13063" width="8" customWidth="1"/>
-    <col min="13064" max="13064" width="9.1171875" customWidth="1"/>
-    <col min="13065" max="13065" width="10.1171875" customWidth="1"/>
-    <col min="13066" max="13066" width="7.46875" customWidth="1"/>
-    <col min="13067" max="13067" width="9.234375" customWidth="1"/>
-    <col min="13069" max="13069" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="3.234375" customWidth="1"/>
-    <col min="13314" max="13314" width="11.1171875" customWidth="1"/>
-    <col min="13315" max="13315" width="6.234375" customWidth="1"/>
-    <col min="13316" max="13316" width="9.1171875" customWidth="1"/>
-    <col min="13319" max="13319" width="8" customWidth="1"/>
-    <col min="13320" max="13320" width="9.1171875" customWidth="1"/>
-    <col min="13321" max="13321" width="10.1171875" customWidth="1"/>
-    <col min="13322" max="13322" width="7.46875" customWidth="1"/>
-    <col min="13323" max="13323" width="9.234375" customWidth="1"/>
-    <col min="13325" max="13325" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="3.234375" customWidth="1"/>
-    <col min="13570" max="13570" width="11.1171875" customWidth="1"/>
-    <col min="13571" max="13571" width="6.234375" customWidth="1"/>
-    <col min="13572" max="13572" width="9.1171875" customWidth="1"/>
-    <col min="13575" max="13575" width="8" customWidth="1"/>
-    <col min="13576" max="13576" width="9.1171875" customWidth="1"/>
-    <col min="13577" max="13577" width="10.1171875" customWidth="1"/>
-    <col min="13578" max="13578" width="7.46875" customWidth="1"/>
-    <col min="13579" max="13579" width="9.234375" customWidth="1"/>
-    <col min="13581" max="13581" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="3.234375" customWidth="1"/>
-    <col min="13826" max="13826" width="11.1171875" customWidth="1"/>
-    <col min="13827" max="13827" width="6.234375" customWidth="1"/>
-    <col min="13828" max="13828" width="9.1171875" customWidth="1"/>
-    <col min="13831" max="13831" width="8" customWidth="1"/>
-    <col min="13832" max="13832" width="9.1171875" customWidth="1"/>
-    <col min="13833" max="13833" width="10.1171875" customWidth="1"/>
-    <col min="13834" max="13834" width="7.46875" customWidth="1"/>
-    <col min="13835" max="13835" width="9.234375" customWidth="1"/>
-    <col min="13837" max="13837" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="3.234375" customWidth="1"/>
-    <col min="14082" max="14082" width="11.1171875" customWidth="1"/>
-    <col min="14083" max="14083" width="6.234375" customWidth="1"/>
-    <col min="14084" max="14084" width="9.1171875" customWidth="1"/>
-    <col min="14087" max="14087" width="8" customWidth="1"/>
-    <col min="14088" max="14088" width="9.1171875" customWidth="1"/>
-    <col min="14089" max="14089" width="10.1171875" customWidth="1"/>
-    <col min="14090" max="14090" width="7.46875" customWidth="1"/>
-    <col min="14091" max="14091" width="9.234375" customWidth="1"/>
-    <col min="14093" max="14093" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="3.234375" customWidth="1"/>
-    <col min="14338" max="14338" width="11.1171875" customWidth="1"/>
-    <col min="14339" max="14339" width="6.234375" customWidth="1"/>
-    <col min="14340" max="14340" width="9.1171875" customWidth="1"/>
-    <col min="14343" max="14343" width="8" customWidth="1"/>
-    <col min="14344" max="14344" width="9.1171875" customWidth="1"/>
-    <col min="14345" max="14345" width="10.1171875" customWidth="1"/>
-    <col min="14346" max="14346" width="7.46875" customWidth="1"/>
-    <col min="14347" max="14347" width="9.234375" customWidth="1"/>
-    <col min="14349" max="14349" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="3.234375" customWidth="1"/>
-    <col min="14594" max="14594" width="11.1171875" customWidth="1"/>
-    <col min="14595" max="14595" width="6.234375" customWidth="1"/>
-    <col min="14596" max="14596" width="9.1171875" customWidth="1"/>
-    <col min="14599" max="14599" width="8" customWidth="1"/>
-    <col min="14600" max="14600" width="9.1171875" customWidth="1"/>
-    <col min="14601" max="14601" width="10.1171875" customWidth="1"/>
-    <col min="14602" max="14602" width="7.46875" customWidth="1"/>
-    <col min="14603" max="14603" width="9.234375" customWidth="1"/>
-    <col min="14605" max="14605" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="3.234375" customWidth="1"/>
-    <col min="14850" max="14850" width="11.1171875" customWidth="1"/>
-    <col min="14851" max="14851" width="6.234375" customWidth="1"/>
-    <col min="14852" max="14852" width="9.1171875" customWidth="1"/>
-    <col min="14855" max="14855" width="8" customWidth="1"/>
-    <col min="14856" max="14856" width="9.1171875" customWidth="1"/>
-    <col min="14857" max="14857" width="10.1171875" customWidth="1"/>
-    <col min="14858" max="14858" width="7.46875" customWidth="1"/>
-    <col min="14859" max="14859" width="9.234375" customWidth="1"/>
-    <col min="14861" max="14861" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="3.234375" customWidth="1"/>
-    <col min="15106" max="15106" width="11.1171875" customWidth="1"/>
-    <col min="15107" max="15107" width="6.234375" customWidth="1"/>
-    <col min="15108" max="15108" width="9.1171875" customWidth="1"/>
-    <col min="15111" max="15111" width="8" customWidth="1"/>
-    <col min="15112" max="15112" width="9.1171875" customWidth="1"/>
-    <col min="15113" max="15113" width="10.1171875" customWidth="1"/>
-    <col min="15114" max="15114" width="7.46875" customWidth="1"/>
-    <col min="15115" max="15115" width="9.234375" customWidth="1"/>
-    <col min="15117" max="15117" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="3.234375" customWidth="1"/>
-    <col min="15362" max="15362" width="11.1171875" customWidth="1"/>
-    <col min="15363" max="15363" width="6.234375" customWidth="1"/>
-    <col min="15364" max="15364" width="9.1171875" customWidth="1"/>
-    <col min="15367" max="15367" width="8" customWidth="1"/>
-    <col min="15368" max="15368" width="9.1171875" customWidth="1"/>
-    <col min="15369" max="15369" width="10.1171875" customWidth="1"/>
-    <col min="15370" max="15370" width="7.46875" customWidth="1"/>
-    <col min="15371" max="15371" width="9.234375" customWidth="1"/>
-    <col min="15373" max="15373" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="3.234375" customWidth="1"/>
-    <col min="15618" max="15618" width="11.1171875" customWidth="1"/>
-    <col min="15619" max="15619" width="6.234375" customWidth="1"/>
-    <col min="15620" max="15620" width="9.1171875" customWidth="1"/>
-    <col min="15623" max="15623" width="8" customWidth="1"/>
-    <col min="15624" max="15624" width="9.1171875" customWidth="1"/>
-    <col min="15625" max="15625" width="10.1171875" customWidth="1"/>
-    <col min="15626" max="15626" width="7.46875" customWidth="1"/>
-    <col min="15627" max="15627" width="9.234375" customWidth="1"/>
-    <col min="15629" max="15629" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="3.234375" customWidth="1"/>
-    <col min="15874" max="15874" width="11.1171875" customWidth="1"/>
-    <col min="15875" max="15875" width="6.234375" customWidth="1"/>
-    <col min="15876" max="15876" width="9.1171875" customWidth="1"/>
-    <col min="15879" max="15879" width="8" customWidth="1"/>
-    <col min="15880" max="15880" width="9.1171875" customWidth="1"/>
-    <col min="15881" max="15881" width="10.1171875" customWidth="1"/>
-    <col min="15882" max="15882" width="7.46875" customWidth="1"/>
-    <col min="15883" max="15883" width="9.234375" customWidth="1"/>
-    <col min="15885" max="15885" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="3.234375" customWidth="1"/>
-    <col min="16130" max="16130" width="11.1171875" customWidth="1"/>
-    <col min="16131" max="16131" width="6.234375" customWidth="1"/>
-    <col min="16132" max="16132" width="9.1171875" customWidth="1"/>
-    <col min="16135" max="16135" width="8" customWidth="1"/>
-    <col min="16136" max="16136" width="9.1171875" customWidth="1"/>
-    <col min="16137" max="16137" width="10.1171875" customWidth="1"/>
-    <col min="16138" max="16138" width="7.46875" customWidth="1"/>
-    <col min="16139" max="16139" width="9.234375" customWidth="1"/>
-    <col min="16141" max="16141" width="9.3515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="127" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="128" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="128" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="2:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:11" ht="16.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="2:11" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="129">
-        <v>45107</v>
-      </c>
-      <c r="K10" s="129"/>
-    </row>
-    <row r="11" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="2:11" ht="1.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="13"/>
-    </row>
-    <row r="16" spans="2:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="2:17" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="2:17" ht="7.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="2:17" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="2:17" ht="7.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="2:17" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="131"/>
-      <c r="H25" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="134"/>
-      <c r="J25" s="135" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="136"/>
-    </row>
-    <row r="26" spans="2:17" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="2:17" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="37"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="24"/>
-      <c r="M27" s="25"/>
-      <c r="O27" s="26"/>
-      <c r="Q27" s="26"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="22"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="17"/>
-      <c r="M28" s="25"/>
-      <c r="O28" s="26"/>
-      <c r="Q28" s="26"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="44">
-        <v>57.28</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="45">
-        <v>30</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="43">
-        <v>0.3</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="24">
-        <f>B29*G29*I29</f>
-        <v>515.52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="37"/>
-      <c r="C30" s="21"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="24"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="44"/>
-      <c r="C31" s="21"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="24"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-      <c r="C32" s="21"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="24"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="37"/>
-      <c r="C33" s="21"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="24"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="44"/>
-      <c r="C34" s="21"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="24"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
-      <c r="C35" s="21"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="24"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="37"/>
-      <c r="C36" s="21"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="24"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="44"/>
-      <c r="C37" s="21"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="24"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="27"/>
-      <c r="C38" s="21"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="24"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="37"/>
-      <c r="C39" s="21"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="24"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="44"/>
-      <c r="C40" s="21"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="24"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="44"/>
-      <c r="C41" s="21"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="24"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="37"/>
-      <c r="C42" s="21"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="24"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="44"/>
-      <c r="C43" s="21"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="24"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="27"/>
-      <c r="C44" s="21"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="24"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="37"/>
-      <c r="C45" s="21"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="24"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="44"/>
-      <c r="C46" s="21"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="24"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="47"/>
-      <c r="C47" s="21"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="24"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="37"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="24"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="37"/>
-      <c r="C49" s="21"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="24"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="44"/>
-      <c r="C50" s="21"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="24"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="27"/>
-      <c r="C51" s="21"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="24"/>
-    </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="41"/>
-    </row>
-    <row r="53" spans="2:11" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B53" s="16"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="K53" s="33">
-        <f>SUM(K29:K50)</f>
-        <v>515.52</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="16"/>
-      <c r="F54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="J54" s="29"/>
-    </row>
-    <row r="55" spans="2:11" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-    </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B56" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B57" s="10"/>
-    </row>
-    <row r="58" spans="2:11" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B58" s="36"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B59" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:J5"/>
-  </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="K53" evalError="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DE0856-DFB2-4876-BD94-44A438F3DD4B}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q122"/>
+  <dimension ref="B1:Q132"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:F25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3038,11 +1810,11 @@
     <col min="4" max="4" width="9.1171875" style="13" customWidth="1"/>
     <col min="5" max="5" width="12.8203125" style="13" customWidth="1"/>
     <col min="6" max="6" width="8.9375" style="13"/>
-    <col min="7" max="7" width="7.41015625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="9.52734375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="6.17578125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="10.05859375" style="13" customWidth="1"/>
-    <col min="11" max="11" width="9.234375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13.17578125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="7.76171875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="14.41015625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="2.3515625" style="13" customWidth="1"/>
     <col min="12" max="12" width="8.9375" style="13"/>
     <col min="13" max="13" width="9.3515625" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="256" width="8.9375" style="13"/>
@@ -3897,19 +2669,19 @@
       <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
       <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="63"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
       <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3940,8 +2712,8 @@
       <c r="H10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>78</v>
+      <c r="I10" s="126" t="s">
+        <v>72</v>
       </c>
       <c r="J10" s="129">
         <v>45079</v>
@@ -4061,59 +2833,57 @@
     </row>
     <row r="23" spans="2:17" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="145" t="s">
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="142"/>
+      <c r="H24" s="137"/>
       <c r="I24" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="144"/>
+      <c r="J24" s="133"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="92"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="90"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="10" t="s">
+    <row r="26" spans="2:17" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="115" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="G26" s="54"/>
-      <c r="H26" s="20"/>
+      <c r="H26" s="125" t="s">
+        <v>74</v>
+      </c>
       <c r="I26" s="54"/>
-      <c r="J26" s="81"/>
+      <c r="J26" s="55" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B27" s="91" t="s">
-        <v>69</v>
-      </c>
+      <c r="B27" s="89"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="G27" s="54"/>
-      <c r="H27" s="82">
-        <v>74</v>
-      </c>
+      <c r="H27" s="81"/>
       <c r="I27" s="54"/>
-      <c r="J27" s="83">
-        <v>4238.72</v>
-      </c>
+      <c r="J27" s="82"/>
       <c r="M27" s="67"/>
       <c r="O27" s="68"/>
       <c r="Q27" s="68"/>
@@ -4124,7 +2894,7 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="G28" s="54"/>
-      <c r="H28" s="84"/>
+      <c r="H28" s="83"/>
       <c r="I28" s="54"/>
       <c r="J28" s="55"/>
       <c r="M28" s="67"/>
@@ -4148,9 +2918,9 @@
       <c r="B30" s="52"/>
       <c r="C30" s="16"/>
       <c r="G30" s="53"/>
-      <c r="H30" s="85"/>
+      <c r="H30" s="84"/>
       <c r="I30" s="53"/>
-      <c r="J30" s="86"/>
+      <c r="J30" s="85"/>
       <c r="M30" s="67"/>
       <c r="O30" s="68"/>
       <c r="Q30" s="68"/>
@@ -4159,9 +2929,9 @@
       <c r="B31" s="77"/>
       <c r="C31" s="16"/>
       <c r="G31" s="53"/>
-      <c r="H31" s="87"/>
+      <c r="H31" s="86"/>
       <c r="I31" s="53"/>
-      <c r="J31" s="86"/>
+      <c r="J31" s="85"/>
       <c r="M31" s="67"/>
       <c r="O31" s="68"/>
       <c r="Q31" s="68"/>
@@ -4170,9 +2940,9 @@
       <c r="B32" s="78"/>
       <c r="C32" s="16"/>
       <c r="G32" s="53"/>
-      <c r="H32" s="85"/>
+      <c r="H32" s="84"/>
       <c r="I32" s="53"/>
-      <c r="J32" s="86"/>
+      <c r="J32" s="85"/>
       <c r="M32" s="67"/>
       <c r="O32" s="68"/>
       <c r="Q32" s="68"/>
@@ -4181,49 +2951,49 @@
       <c r="B33" s="52"/>
       <c r="C33" s="16"/>
       <c r="G33" s="53"/>
-      <c r="H33" s="85"/>
+      <c r="H33" s="84"/>
       <c r="I33" s="53"/>
-      <c r="J33" s="86"/>
+      <c r="J33" s="85"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="77"/>
       <c r="C34" s="16"/>
       <c r="G34" s="53"/>
-      <c r="H34" s="87"/>
+      <c r="H34" s="86"/>
       <c r="I34" s="53"/>
-      <c r="J34" s="86"/>
+      <c r="J34" s="85"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="78"/>
       <c r="C35" s="16"/>
       <c r="G35" s="53"/>
-      <c r="H35" s="85"/>
+      <c r="H35" s="84"/>
       <c r="I35" s="53"/>
-      <c r="J35" s="86"/>
+      <c r="J35" s="85"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36" s="52"/>
       <c r="C36" s="16"/>
       <c r="G36" s="53"/>
-      <c r="H36" s="85"/>
+      <c r="H36" s="84"/>
       <c r="I36" s="53"/>
-      <c r="J36" s="86"/>
+      <c r="J36" s="85"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="79"/>
       <c r="C37" s="16"/>
       <c r="G37" s="53"/>
-      <c r="H37" s="87"/>
+      <c r="H37" s="86"/>
       <c r="I37" s="53"/>
-      <c r="J37" s="86"/>
+      <c r="J37" s="85"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="78"/>
       <c r="C38" s="16"/>
       <c r="G38" s="53"/>
-      <c r="H38" s="88"/>
+      <c r="H38" s="87"/>
       <c r="I38" s="53"/>
-      <c r="J38" s="86"/>
+      <c r="J38" s="85"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G39" s="72"/>
@@ -4233,11 +3003,11 @@
     <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B40" s="16"/>
       <c r="G40" s="70"/>
-      <c r="H40" s="52" t="s">
+      <c r="H40" s="124" t="s">
         <v>14</v>
       </c>
       <c r="I40" s="71"/>
-      <c r="J40" s="89">
+      <c r="J40" s="123">
         <v>4238.72</v>
       </c>
     </row>
@@ -4252,9 +3022,9 @@
       <c r="D42" s="73"/>
       <c r="E42" s="73"/>
       <c r="F42" s="73"/>
-      <c r="G42" s="93"/>
+      <c r="G42" s="91"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="93"/>
+      <c r="I42" s="91"/>
       <c r="J42" s="73"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
@@ -4265,542 +3035,1820 @@
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="10"/>
     </row>
-    <row r="45" spans="2:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B45" s="36"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B45" s="10"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="2:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B47" s="36"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="75" t="s">
+      <c r="G48" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-    </row>
-    <row r="70" spans="2:11" ht="30.4" x14ac:dyDescent="0.4">
-      <c r="C70" s="152" t="s">
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+    </row>
+    <row r="80" spans="3:11" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C80" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D70" s="152"/>
-      <c r="E70" s="152"/>
-      <c r="F70" s="152"/>
-      <c r="G70" s="152"/>
-      <c r="H70" s="152"/>
-      <c r="I70" s="152"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C71" s="10" t="s">
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="61"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C81" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="94"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C72" s="138" t="s">
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="92"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C82" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="138"/>
-      <c r="E72" s="138"/>
-      <c r="F72" s="138"/>
-      <c r="G72" s="138"/>
-      <c r="H72" s="137"/>
-      <c r="I72" s="137"/>
-      <c r="J72" s="137"/>
-      <c r="K72" s="95"/>
-    </row>
-    <row r="73" spans="2:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="B73" s="63"/>
-      <c r="C73" s="138" t="s">
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="128"/>
+      <c r="I82" s="128"/>
+      <c r="J82" s="128"/>
+      <c r="K82" s="93"/>
+    </row>
+    <row r="83" spans="2:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="B83" s="63"/>
+      <c r="C83" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="138"/>
-      <c r="E73" s="138"/>
-      <c r="F73" s="138"/>
-      <c r="G73" s="138"/>
-      <c r="H73" s="137"/>
-      <c r="I73" s="137"/>
-      <c r="J73" s="137"/>
-      <c r="K73" s="95"/>
-    </row>
-    <row r="74" spans="2:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="B74" s="63"/>
-      <c r="C74" s="128" t="s">
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="128"/>
+      <c r="I83" s="128"/>
+      <c r="J83" s="128"/>
+      <c r="K83" s="93"/>
+    </row>
+    <row r="84" spans="2:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="B84" s="63"/>
+      <c r="C84" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="128"/>
-      <c r="E74" s="128"/>
-      <c r="F74" s="128"/>
-      <c r="G74" s="128"/>
-      <c r="H74" s="139"/>
-      <c r="I74" s="139"/>
-      <c r="J74" s="139"/>
-      <c r="K74" s="63"/>
-    </row>
-    <row r="76" spans="2:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="B76" s="64" t="s">
+      <c r="D84" s="143"/>
+      <c r="E84" s="143"/>
+      <c r="F84" s="143"/>
+      <c r="G84" s="143"/>
+      <c r="H84" s="130"/>
+      <c r="I84" s="130"/>
+      <c r="J84" s="130"/>
+      <c r="K84" s="63"/>
+    </row>
+    <row r="86" spans="2:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="B86" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="64" t="s">
+      <c r="C86" s="65"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="65"/>
-      <c r="K76" s="65"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B78" s="6" t="s">
+      <c r="F86" s="64"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="65"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B88" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="H88" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I78" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J78" s="151">
+      <c r="I88" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J88" s="127">
         <v>45033</v>
       </c>
-      <c r="K78" s="151"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B79" s="8"/>
-      <c r="C79" s="7"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B80" s="10" t="s">
+      <c r="K88" s="127"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B89" s="8"/>
+      <c r="C89" s="7"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B90" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="66"/>
-      <c r="H80" s="66"/>
-      <c r="I80" s="66"/>
-      <c r="J80" s="66"/>
-      <c r="K80" s="66"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="66"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B82" s="10" t="s">
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="66"/>
+      <c r="J90" s="66"/>
+      <c r="K90" s="66"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B91" s="10"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="66"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B92" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D82" s="66"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B84" s="10" t="s">
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="66"/>
+      <c r="I92" s="66"/>
+      <c r="J92" s="66"/>
+      <c r="K92" s="66"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B94" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C94" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D84" s="15"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="66"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B85" s="10"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B86" s="10" t="s">
+      <c r="D94" s="15"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="66"/>
+      <c r="I94" s="66"/>
+      <c r="J94" s="66"/>
+      <c r="K94" s="66"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B95" s="10"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B96" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C96" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="66"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B87" s="10"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B88" s="10" t="s">
+      <c r="D96" s="11"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="66"/>
+      <c r="J96" s="66"/>
+      <c r="K96" s="66"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B97" s="10"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B98" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C98" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D88" s="66"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="66"/>
-      <c r="H88" s="66"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="66"/>
-      <c r="K88" s="66"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B89" s="10"/>
-    </row>
-    <row r="90" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="121"/>
-      <c r="C90" s="121"/>
-      <c r="D90" s="121"/>
-      <c r="E90" s="121"/>
-      <c r="F90" s="121"/>
-      <c r="G90" s="121"/>
-      <c r="H90" s="121"/>
-      <c r="I90" s="121"/>
-      <c r="J90" s="121"/>
-    </row>
-    <row r="91" spans="2:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="146" t="s">
-        <v>75</v>
-      </c>
-      <c r="C91" s="146"/>
-      <c r="D91" s="146"/>
-      <c r="E91" s="146"/>
-      <c r="F91" s="147"/>
-      <c r="G91" s="148" t="s">
-        <v>76</v>
-      </c>
-      <c r="H91" s="150"/>
-      <c r="I91" s="148" t="s">
-        <v>77</v>
-      </c>
-      <c r="J91" s="149"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B92" s="52"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="2:11" s="114" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="115" t="s">
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="66"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="66"/>
+      <c r="K98" s="66"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B99" s="10"/>
+    </row>
+    <row r="100" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B100" s="119"/>
+      <c r="C100" s="119"/>
+      <c r="D100" s="119"/>
+      <c r="E100" s="119"/>
+      <c r="F100" s="119"/>
+      <c r="G100" s="119"/>
+      <c r="H100" s="119"/>
+      <c r="I100" s="119"/>
+      <c r="J100" s="119"/>
+    </row>
+    <row r="101" spans="2:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B101" s="138" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" s="138"/>
+      <c r="D101" s="138"/>
+      <c r="E101" s="138"/>
+      <c r="F101" s="139"/>
+      <c r="G101" s="140" t="s">
+        <v>70</v>
+      </c>
+      <c r="H101" s="142"/>
+      <c r="I101" s="140" t="s">
+        <v>71</v>
+      </c>
+      <c r="J101" s="141"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B102" s="52"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="49"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="2:11" s="112" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="C93" s="115"/>
-      <c r="D93" s="115"/>
-      <c r="E93" s="115"/>
-      <c r="F93" s="115"/>
-      <c r="G93" s="116"/>
-      <c r="H93" s="117"/>
-      <c r="I93" s="116"/>
-      <c r="J93" s="118"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B94" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="C94" s="115"/>
-      <c r="D94" s="115"/>
-      <c r="E94" s="115"/>
-      <c r="F94" s="115"/>
-      <c r="G94" s="116"/>
-      <c r="H94" s="123">
-        <v>74</v>
-      </c>
-      <c r="I94" s="116"/>
-      <c r="J94" s="124">
-        <v>2422.58</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B95" s="57"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="58"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="55"/>
-    </row>
-    <row r="96" spans="2:11" s="114" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="C96" s="115"/>
-      <c r="D96" s="115"/>
-      <c r="E96" s="115"/>
-      <c r="F96" s="115"/>
-      <c r="G96" s="116"/>
-      <c r="H96" s="119"/>
-      <c r="I96" s="116"/>
-      <c r="J96" s="120"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B97" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="C97" s="115"/>
-      <c r="D97" s="115"/>
-      <c r="E97" s="115"/>
-      <c r="F97" s="115"/>
-      <c r="G97" s="116"/>
-      <c r="H97" s="123">
-        <v>74</v>
-      </c>
-      <c r="I97" s="116"/>
-      <c r="J97" s="124">
-        <v>4366</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B98" s="103"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="58"/>
-      <c r="I98" s="54"/>
-      <c r="J98" s="55"/>
-    </row>
-    <row r="99" spans="2:10" s="114" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="C99" s="115"/>
-      <c r="D99" s="115"/>
-      <c r="E99" s="115"/>
-      <c r="F99" s="115"/>
-      <c r="G99" s="116"/>
-      <c r="H99" s="119"/>
-      <c r="I99" s="116"/>
-      <c r="J99" s="120"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B100" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="C100" s="115"/>
-      <c r="D100" s="115"/>
-      <c r="E100" s="115"/>
-      <c r="F100" s="115"/>
-      <c r="G100" s="116"/>
-      <c r="H100" s="123">
-        <v>74</v>
-      </c>
-      <c r="I100" s="116"/>
-      <c r="J100" s="124">
-        <v>8448.2099999999991</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B101" s="104"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="10"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="54"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="54"/>
-      <c r="J102" s="55"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B103" s="103"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="80"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="56"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="55"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="105"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="55"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C103" s="113"/>
+      <c r="D103" s="113"/>
+      <c r="E103" s="113"/>
+      <c r="F103" s="113"/>
+      <c r="G103" s="114"/>
+      <c r="H103" s="115"/>
+      <c r="I103" s="114"/>
+      <c r="J103" s="116"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B104" s="120"/>
+      <c r="C104" s="113"/>
+      <c r="D104" s="113"/>
+      <c r="E104" s="113"/>
+      <c r="F104" s="113"/>
+      <c r="G104" s="114"/>
+      <c r="H104" s="121"/>
+      <c r="I104" s="114"/>
+      <c r="J104" s="122"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B105" s="57"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
-      <c r="E105" s="106"/>
-      <c r="F105" s="107"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
       <c r="G105" s="54"/>
-      <c r="H105" s="20"/>
+      <c r="H105" s="58"/>
       <c r="I105" s="54"/>
       <c r="J105" s="55"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B106" s="108"/>
-      <c r="C106" s="108"/>
-      <c r="D106" s="108"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="109"/>
-      <c r="H106" s="108"/>
-      <c r="I106" s="110"/>
-      <c r="J106" s="41"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="111"/>
-      <c r="H107" s="104" t="s">
+    <row r="106" spans="2:11" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="113"/>
+      <c r="C106" s="113"/>
+      <c r="D106" s="113"/>
+      <c r="E106" s="113"/>
+      <c r="F106" s="113"/>
+      <c r="G106" s="114"/>
+      <c r="H106" s="117"/>
+      <c r="I106" s="114"/>
+      <c r="J106" s="118"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B107" s="120"/>
+      <c r="C107" s="113"/>
+      <c r="D107" s="113"/>
+      <c r="E107" s="113"/>
+      <c r="F107" s="113"/>
+      <c r="G107" s="114"/>
+      <c r="H107" s="121"/>
+      <c r="I107" s="114"/>
+      <c r="J107" s="122"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B108" s="101"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="54"/>
+      <c r="J108" s="55"/>
+    </row>
+    <row r="109" spans="2:11" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="113"/>
+      <c r="C109" s="113"/>
+      <c r="D109" s="113"/>
+      <c r="E109" s="113"/>
+      <c r="F109" s="113"/>
+      <c r="G109" s="114"/>
+      <c r="H109" s="117"/>
+      <c r="I109" s="114"/>
+      <c r="J109" s="118"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B110" s="120"/>
+      <c r="C110" s="113"/>
+      <c r="D110" s="113"/>
+      <c r="E110" s="113"/>
+      <c r="F110" s="113"/>
+      <c r="G110" s="114"/>
+      <c r="H110" s="121"/>
+      <c r="I110" s="114"/>
+      <c r="J110" s="122"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B111" s="102"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="10"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="55"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B113" s="101"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="80"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="56"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="55"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="103"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="54"/>
+      <c r="J114" s="55"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B115" s="57"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="104"/>
+      <c r="F115" s="105"/>
+      <c r="G115" s="54"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="54"/>
+      <c r="J115" s="55"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B116" s="106"/>
+      <c r="C116" s="106"/>
+      <c r="D116" s="106"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="107"/>
+      <c r="H116" s="106"/>
+      <c r="I116" s="108"/>
+      <c r="J116" s="41"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="109"/>
+      <c r="H117" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="I107" s="112"/>
-      <c r="J107" s="113">
-        <f>SUM(J94:J106)</f>
-        <v>15236.789999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B108" s="16"/>
-      <c r="G108" s="72"/>
-      <c r="I108" s="72"/>
-    </row>
-    <row r="109" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B109" s="73"/>
-      <c r="C109" s="73"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="73"/>
-      <c r="F109" s="73"/>
-      <c r="G109" s="102"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="73"/>
-      <c r="J109" s="73"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B110" s="10" t="s">
+      <c r="I117" s="110"/>
+      <c r="J117" s="111">
+        <f>SUM(J104:J116)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B118" s="16"/>
+      <c r="G118" s="72"/>
+      <c r="I118" s="72"/>
+    </row>
+    <row r="119" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B119" s="73"/>
+      <c r="C119" s="73"/>
+      <c r="D119" s="73"/>
+      <c r="E119" s="73"/>
+      <c r="F119" s="73"/>
+      <c r="G119" s="100"/>
+      <c r="H119" s="74"/>
+      <c r="I119" s="73"/>
+      <c r="J119" s="73"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B120" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B111" s="10"/>
-    </row>
-    <row r="112" spans="2:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B112" s="36"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="65"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B113" s="10" t="s">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B121" s="10"/>
+    </row>
+    <row r="122" spans="2:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B122" s="36"/>
+      <c r="C122" s="65"/>
+      <c r="D122" s="65"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B123" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H113" s="38" t="s">
+      <c r="H123" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="I113" s="69"/>
-      <c r="J113" s="69"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B121" s="96"/>
-      <c r="C121" s="97"/>
-      <c r="D121" s="98"/>
-      <c r="E121" s="98"/>
-      <c r="F121" s="99"/>
-      <c r="G121" s="97"/>
-      <c r="H121" s="97"/>
-      <c r="I121" s="100"/>
-      <c r="J121" s="101"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B122" s="141"/>
-      <c r="C122" s="141"/>
-      <c r="D122" s="141"/>
-      <c r="E122" s="141"/>
-      <c r="F122" s="141"/>
-      <c r="G122" s="141"/>
-      <c r="H122" s="141"/>
-      <c r="I122" s="141"/>
-      <c r="J122" s="141"/>
+      <c r="I123" s="69"/>
+      <c r="J123" s="69"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B131" s="94"/>
+      <c r="C131" s="95"/>
+      <c r="D131" s="96"/>
+      <c r="E131" s="96"/>
+      <c r="F131" s="97"/>
+      <c r="G131" s="95"/>
+      <c r="H131" s="95"/>
+      <c r="I131" s="98"/>
+      <c r="J131" s="99"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B132" s="132"/>
+      <c r="C132" s="132"/>
+      <c r="D132" s="132"/>
+      <c r="E132" s="132"/>
+      <c r="F132" s="132"/>
+      <c r="G132" s="132"/>
+      <c r="H132" s="132"/>
+      <c r="I132" s="132"/>
+      <c r="J132" s="132"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B122:J122"/>
+  <mergeCells count="15">
+    <mergeCell ref="B132:J132"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="H6:J6"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="90" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="2" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="77" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4148669-BC65-4030-870D-CAF6F562DA97}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B1:Q59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.234375" customWidth="1"/>
+    <col min="2" max="2" width="11.1171875" customWidth="1"/>
+    <col min="3" max="3" width="6.234375" customWidth="1"/>
+    <col min="4" max="4" width="9.1171875" customWidth="1"/>
+    <col min="7" max="7" width="8.87890625" customWidth="1"/>
+    <col min="8" max="8" width="9.1171875" customWidth="1"/>
+    <col min="9" max="9" width="10.1171875" customWidth="1"/>
+    <col min="10" max="10" width="7.46875" customWidth="1"/>
+    <col min="11" max="11" width="9.234375" customWidth="1"/>
+    <col min="13" max="13" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="3.234375" customWidth="1"/>
+    <col min="258" max="258" width="11.1171875" customWidth="1"/>
+    <col min="259" max="259" width="6.234375" customWidth="1"/>
+    <col min="260" max="260" width="9.1171875" customWidth="1"/>
+    <col min="263" max="263" width="8" customWidth="1"/>
+    <col min="264" max="264" width="9.1171875" customWidth="1"/>
+    <col min="265" max="265" width="10.1171875" customWidth="1"/>
+    <col min="266" max="266" width="7.46875" customWidth="1"/>
+    <col min="267" max="267" width="9.234375" customWidth="1"/>
+    <col min="269" max="269" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="3.234375" customWidth="1"/>
+    <col min="514" max="514" width="11.1171875" customWidth="1"/>
+    <col min="515" max="515" width="6.234375" customWidth="1"/>
+    <col min="516" max="516" width="9.1171875" customWidth="1"/>
+    <col min="519" max="519" width="8" customWidth="1"/>
+    <col min="520" max="520" width="9.1171875" customWidth="1"/>
+    <col min="521" max="521" width="10.1171875" customWidth="1"/>
+    <col min="522" max="522" width="7.46875" customWidth="1"/>
+    <col min="523" max="523" width="9.234375" customWidth="1"/>
+    <col min="525" max="525" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="3.234375" customWidth="1"/>
+    <col min="770" max="770" width="11.1171875" customWidth="1"/>
+    <col min="771" max="771" width="6.234375" customWidth="1"/>
+    <col min="772" max="772" width="9.1171875" customWidth="1"/>
+    <col min="775" max="775" width="8" customWidth="1"/>
+    <col min="776" max="776" width="9.1171875" customWidth="1"/>
+    <col min="777" max="777" width="10.1171875" customWidth="1"/>
+    <col min="778" max="778" width="7.46875" customWidth="1"/>
+    <col min="779" max="779" width="9.234375" customWidth="1"/>
+    <col min="781" max="781" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="3.234375" customWidth="1"/>
+    <col min="1026" max="1026" width="11.1171875" customWidth="1"/>
+    <col min="1027" max="1027" width="6.234375" customWidth="1"/>
+    <col min="1028" max="1028" width="9.1171875" customWidth="1"/>
+    <col min="1031" max="1031" width="8" customWidth="1"/>
+    <col min="1032" max="1032" width="9.1171875" customWidth="1"/>
+    <col min="1033" max="1033" width="10.1171875" customWidth="1"/>
+    <col min="1034" max="1034" width="7.46875" customWidth="1"/>
+    <col min="1035" max="1035" width="9.234375" customWidth="1"/>
+    <col min="1037" max="1037" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="3.234375" customWidth="1"/>
+    <col min="1282" max="1282" width="11.1171875" customWidth="1"/>
+    <col min="1283" max="1283" width="6.234375" customWidth="1"/>
+    <col min="1284" max="1284" width="9.1171875" customWidth="1"/>
+    <col min="1287" max="1287" width="8" customWidth="1"/>
+    <col min="1288" max="1288" width="9.1171875" customWidth="1"/>
+    <col min="1289" max="1289" width="10.1171875" customWidth="1"/>
+    <col min="1290" max="1290" width="7.46875" customWidth="1"/>
+    <col min="1291" max="1291" width="9.234375" customWidth="1"/>
+    <col min="1293" max="1293" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="3.234375" customWidth="1"/>
+    <col min="1538" max="1538" width="11.1171875" customWidth="1"/>
+    <col min="1539" max="1539" width="6.234375" customWidth="1"/>
+    <col min="1540" max="1540" width="9.1171875" customWidth="1"/>
+    <col min="1543" max="1543" width="8" customWidth="1"/>
+    <col min="1544" max="1544" width="9.1171875" customWidth="1"/>
+    <col min="1545" max="1545" width="10.1171875" customWidth="1"/>
+    <col min="1546" max="1546" width="7.46875" customWidth="1"/>
+    <col min="1547" max="1547" width="9.234375" customWidth="1"/>
+    <col min="1549" max="1549" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="3.234375" customWidth="1"/>
+    <col min="1794" max="1794" width="11.1171875" customWidth="1"/>
+    <col min="1795" max="1795" width="6.234375" customWidth="1"/>
+    <col min="1796" max="1796" width="9.1171875" customWidth="1"/>
+    <col min="1799" max="1799" width="8" customWidth="1"/>
+    <col min="1800" max="1800" width="9.1171875" customWidth="1"/>
+    <col min="1801" max="1801" width="10.1171875" customWidth="1"/>
+    <col min="1802" max="1802" width="7.46875" customWidth="1"/>
+    <col min="1803" max="1803" width="9.234375" customWidth="1"/>
+    <col min="1805" max="1805" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="3.234375" customWidth="1"/>
+    <col min="2050" max="2050" width="11.1171875" customWidth="1"/>
+    <col min="2051" max="2051" width="6.234375" customWidth="1"/>
+    <col min="2052" max="2052" width="9.1171875" customWidth="1"/>
+    <col min="2055" max="2055" width="8" customWidth="1"/>
+    <col min="2056" max="2056" width="9.1171875" customWidth="1"/>
+    <col min="2057" max="2057" width="10.1171875" customWidth="1"/>
+    <col min="2058" max="2058" width="7.46875" customWidth="1"/>
+    <col min="2059" max="2059" width="9.234375" customWidth="1"/>
+    <col min="2061" max="2061" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="3.234375" customWidth="1"/>
+    <col min="2306" max="2306" width="11.1171875" customWidth="1"/>
+    <col min="2307" max="2307" width="6.234375" customWidth="1"/>
+    <col min="2308" max="2308" width="9.1171875" customWidth="1"/>
+    <col min="2311" max="2311" width="8" customWidth="1"/>
+    <col min="2312" max="2312" width="9.1171875" customWidth="1"/>
+    <col min="2313" max="2313" width="10.1171875" customWidth="1"/>
+    <col min="2314" max="2314" width="7.46875" customWidth="1"/>
+    <col min="2315" max="2315" width="9.234375" customWidth="1"/>
+    <col min="2317" max="2317" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="3.234375" customWidth="1"/>
+    <col min="2562" max="2562" width="11.1171875" customWidth="1"/>
+    <col min="2563" max="2563" width="6.234375" customWidth="1"/>
+    <col min="2564" max="2564" width="9.1171875" customWidth="1"/>
+    <col min="2567" max="2567" width="8" customWidth="1"/>
+    <col min="2568" max="2568" width="9.1171875" customWidth="1"/>
+    <col min="2569" max="2569" width="10.1171875" customWidth="1"/>
+    <col min="2570" max="2570" width="7.46875" customWidth="1"/>
+    <col min="2571" max="2571" width="9.234375" customWidth="1"/>
+    <col min="2573" max="2573" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="3.234375" customWidth="1"/>
+    <col min="2818" max="2818" width="11.1171875" customWidth="1"/>
+    <col min="2819" max="2819" width="6.234375" customWidth="1"/>
+    <col min="2820" max="2820" width="9.1171875" customWidth="1"/>
+    <col min="2823" max="2823" width="8" customWidth="1"/>
+    <col min="2824" max="2824" width="9.1171875" customWidth="1"/>
+    <col min="2825" max="2825" width="10.1171875" customWidth="1"/>
+    <col min="2826" max="2826" width="7.46875" customWidth="1"/>
+    <col min="2827" max="2827" width="9.234375" customWidth="1"/>
+    <col min="2829" max="2829" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="3.234375" customWidth="1"/>
+    <col min="3074" max="3074" width="11.1171875" customWidth="1"/>
+    <col min="3075" max="3075" width="6.234375" customWidth="1"/>
+    <col min="3076" max="3076" width="9.1171875" customWidth="1"/>
+    <col min="3079" max="3079" width="8" customWidth="1"/>
+    <col min="3080" max="3080" width="9.1171875" customWidth="1"/>
+    <col min="3081" max="3081" width="10.1171875" customWidth="1"/>
+    <col min="3082" max="3082" width="7.46875" customWidth="1"/>
+    <col min="3083" max="3083" width="9.234375" customWidth="1"/>
+    <col min="3085" max="3085" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="3.234375" customWidth="1"/>
+    <col min="3330" max="3330" width="11.1171875" customWidth="1"/>
+    <col min="3331" max="3331" width="6.234375" customWidth="1"/>
+    <col min="3332" max="3332" width="9.1171875" customWidth="1"/>
+    <col min="3335" max="3335" width="8" customWidth="1"/>
+    <col min="3336" max="3336" width="9.1171875" customWidth="1"/>
+    <col min="3337" max="3337" width="10.1171875" customWidth="1"/>
+    <col min="3338" max="3338" width="7.46875" customWidth="1"/>
+    <col min="3339" max="3339" width="9.234375" customWidth="1"/>
+    <col min="3341" max="3341" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="3.234375" customWidth="1"/>
+    <col min="3586" max="3586" width="11.1171875" customWidth="1"/>
+    <col min="3587" max="3587" width="6.234375" customWidth="1"/>
+    <col min="3588" max="3588" width="9.1171875" customWidth="1"/>
+    <col min="3591" max="3591" width="8" customWidth="1"/>
+    <col min="3592" max="3592" width="9.1171875" customWidth="1"/>
+    <col min="3593" max="3593" width="10.1171875" customWidth="1"/>
+    <col min="3594" max="3594" width="7.46875" customWidth="1"/>
+    <col min="3595" max="3595" width="9.234375" customWidth="1"/>
+    <col min="3597" max="3597" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="3.234375" customWidth="1"/>
+    <col min="3842" max="3842" width="11.1171875" customWidth="1"/>
+    <col min="3843" max="3843" width="6.234375" customWidth="1"/>
+    <col min="3844" max="3844" width="9.1171875" customWidth="1"/>
+    <col min="3847" max="3847" width="8" customWidth="1"/>
+    <col min="3848" max="3848" width="9.1171875" customWidth="1"/>
+    <col min="3849" max="3849" width="10.1171875" customWidth="1"/>
+    <col min="3850" max="3850" width="7.46875" customWidth="1"/>
+    <col min="3851" max="3851" width="9.234375" customWidth="1"/>
+    <col min="3853" max="3853" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="3.234375" customWidth="1"/>
+    <col min="4098" max="4098" width="11.1171875" customWidth="1"/>
+    <col min="4099" max="4099" width="6.234375" customWidth="1"/>
+    <col min="4100" max="4100" width="9.1171875" customWidth="1"/>
+    <col min="4103" max="4103" width="8" customWidth="1"/>
+    <col min="4104" max="4104" width="9.1171875" customWidth="1"/>
+    <col min="4105" max="4105" width="10.1171875" customWidth="1"/>
+    <col min="4106" max="4106" width="7.46875" customWidth="1"/>
+    <col min="4107" max="4107" width="9.234375" customWidth="1"/>
+    <col min="4109" max="4109" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="3.234375" customWidth="1"/>
+    <col min="4354" max="4354" width="11.1171875" customWidth="1"/>
+    <col min="4355" max="4355" width="6.234375" customWidth="1"/>
+    <col min="4356" max="4356" width="9.1171875" customWidth="1"/>
+    <col min="4359" max="4359" width="8" customWidth="1"/>
+    <col min="4360" max="4360" width="9.1171875" customWidth="1"/>
+    <col min="4361" max="4361" width="10.1171875" customWidth="1"/>
+    <col min="4362" max="4362" width="7.46875" customWidth="1"/>
+    <col min="4363" max="4363" width="9.234375" customWidth="1"/>
+    <col min="4365" max="4365" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="3.234375" customWidth="1"/>
+    <col min="4610" max="4610" width="11.1171875" customWidth="1"/>
+    <col min="4611" max="4611" width="6.234375" customWidth="1"/>
+    <col min="4612" max="4612" width="9.1171875" customWidth="1"/>
+    <col min="4615" max="4615" width="8" customWidth="1"/>
+    <col min="4616" max="4616" width="9.1171875" customWidth="1"/>
+    <col min="4617" max="4617" width="10.1171875" customWidth="1"/>
+    <col min="4618" max="4618" width="7.46875" customWidth="1"/>
+    <col min="4619" max="4619" width="9.234375" customWidth="1"/>
+    <col min="4621" max="4621" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="3.234375" customWidth="1"/>
+    <col min="4866" max="4866" width="11.1171875" customWidth="1"/>
+    <col min="4867" max="4867" width="6.234375" customWidth="1"/>
+    <col min="4868" max="4868" width="9.1171875" customWidth="1"/>
+    <col min="4871" max="4871" width="8" customWidth="1"/>
+    <col min="4872" max="4872" width="9.1171875" customWidth="1"/>
+    <col min="4873" max="4873" width="10.1171875" customWidth="1"/>
+    <col min="4874" max="4874" width="7.46875" customWidth="1"/>
+    <col min="4875" max="4875" width="9.234375" customWidth="1"/>
+    <col min="4877" max="4877" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="3.234375" customWidth="1"/>
+    <col min="5122" max="5122" width="11.1171875" customWidth="1"/>
+    <col min="5123" max="5123" width="6.234375" customWidth="1"/>
+    <col min="5124" max="5124" width="9.1171875" customWidth="1"/>
+    <col min="5127" max="5127" width="8" customWidth="1"/>
+    <col min="5128" max="5128" width="9.1171875" customWidth="1"/>
+    <col min="5129" max="5129" width="10.1171875" customWidth="1"/>
+    <col min="5130" max="5130" width="7.46875" customWidth="1"/>
+    <col min="5131" max="5131" width="9.234375" customWidth="1"/>
+    <col min="5133" max="5133" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="3.234375" customWidth="1"/>
+    <col min="5378" max="5378" width="11.1171875" customWidth="1"/>
+    <col min="5379" max="5379" width="6.234375" customWidth="1"/>
+    <col min="5380" max="5380" width="9.1171875" customWidth="1"/>
+    <col min="5383" max="5383" width="8" customWidth="1"/>
+    <col min="5384" max="5384" width="9.1171875" customWidth="1"/>
+    <col min="5385" max="5385" width="10.1171875" customWidth="1"/>
+    <col min="5386" max="5386" width="7.46875" customWidth="1"/>
+    <col min="5387" max="5387" width="9.234375" customWidth="1"/>
+    <col min="5389" max="5389" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="3.234375" customWidth="1"/>
+    <col min="5634" max="5634" width="11.1171875" customWidth="1"/>
+    <col min="5635" max="5635" width="6.234375" customWidth="1"/>
+    <col min="5636" max="5636" width="9.1171875" customWidth="1"/>
+    <col min="5639" max="5639" width="8" customWidth="1"/>
+    <col min="5640" max="5640" width="9.1171875" customWidth="1"/>
+    <col min="5641" max="5641" width="10.1171875" customWidth="1"/>
+    <col min="5642" max="5642" width="7.46875" customWidth="1"/>
+    <col min="5643" max="5643" width="9.234375" customWidth="1"/>
+    <col min="5645" max="5645" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="3.234375" customWidth="1"/>
+    <col min="5890" max="5890" width="11.1171875" customWidth="1"/>
+    <col min="5891" max="5891" width="6.234375" customWidth="1"/>
+    <col min="5892" max="5892" width="9.1171875" customWidth="1"/>
+    <col min="5895" max="5895" width="8" customWidth="1"/>
+    <col min="5896" max="5896" width="9.1171875" customWidth="1"/>
+    <col min="5897" max="5897" width="10.1171875" customWidth="1"/>
+    <col min="5898" max="5898" width="7.46875" customWidth="1"/>
+    <col min="5899" max="5899" width="9.234375" customWidth="1"/>
+    <col min="5901" max="5901" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="3.234375" customWidth="1"/>
+    <col min="6146" max="6146" width="11.1171875" customWidth="1"/>
+    <col min="6147" max="6147" width="6.234375" customWidth="1"/>
+    <col min="6148" max="6148" width="9.1171875" customWidth="1"/>
+    <col min="6151" max="6151" width="8" customWidth="1"/>
+    <col min="6152" max="6152" width="9.1171875" customWidth="1"/>
+    <col min="6153" max="6153" width="10.1171875" customWidth="1"/>
+    <col min="6154" max="6154" width="7.46875" customWidth="1"/>
+    <col min="6155" max="6155" width="9.234375" customWidth="1"/>
+    <col min="6157" max="6157" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="3.234375" customWidth="1"/>
+    <col min="6402" max="6402" width="11.1171875" customWidth="1"/>
+    <col min="6403" max="6403" width="6.234375" customWidth="1"/>
+    <col min="6404" max="6404" width="9.1171875" customWidth="1"/>
+    <col min="6407" max="6407" width="8" customWidth="1"/>
+    <col min="6408" max="6408" width="9.1171875" customWidth="1"/>
+    <col min="6409" max="6409" width="10.1171875" customWidth="1"/>
+    <col min="6410" max="6410" width="7.46875" customWidth="1"/>
+    <col min="6411" max="6411" width="9.234375" customWidth="1"/>
+    <col min="6413" max="6413" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="3.234375" customWidth="1"/>
+    <col min="6658" max="6658" width="11.1171875" customWidth="1"/>
+    <col min="6659" max="6659" width="6.234375" customWidth="1"/>
+    <col min="6660" max="6660" width="9.1171875" customWidth="1"/>
+    <col min="6663" max="6663" width="8" customWidth="1"/>
+    <col min="6664" max="6664" width="9.1171875" customWidth="1"/>
+    <col min="6665" max="6665" width="10.1171875" customWidth="1"/>
+    <col min="6666" max="6666" width="7.46875" customWidth="1"/>
+    <col min="6667" max="6667" width="9.234375" customWidth="1"/>
+    <col min="6669" max="6669" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="3.234375" customWidth="1"/>
+    <col min="6914" max="6914" width="11.1171875" customWidth="1"/>
+    <col min="6915" max="6915" width="6.234375" customWidth="1"/>
+    <col min="6916" max="6916" width="9.1171875" customWidth="1"/>
+    <col min="6919" max="6919" width="8" customWidth="1"/>
+    <col min="6920" max="6920" width="9.1171875" customWidth="1"/>
+    <col min="6921" max="6921" width="10.1171875" customWidth="1"/>
+    <col min="6922" max="6922" width="7.46875" customWidth="1"/>
+    <col min="6923" max="6923" width="9.234375" customWidth="1"/>
+    <col min="6925" max="6925" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="3.234375" customWidth="1"/>
+    <col min="7170" max="7170" width="11.1171875" customWidth="1"/>
+    <col min="7171" max="7171" width="6.234375" customWidth="1"/>
+    <col min="7172" max="7172" width="9.1171875" customWidth="1"/>
+    <col min="7175" max="7175" width="8" customWidth="1"/>
+    <col min="7176" max="7176" width="9.1171875" customWidth="1"/>
+    <col min="7177" max="7177" width="10.1171875" customWidth="1"/>
+    <col min="7178" max="7178" width="7.46875" customWidth="1"/>
+    <col min="7179" max="7179" width="9.234375" customWidth="1"/>
+    <col min="7181" max="7181" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="3.234375" customWidth="1"/>
+    <col min="7426" max="7426" width="11.1171875" customWidth="1"/>
+    <col min="7427" max="7427" width="6.234375" customWidth="1"/>
+    <col min="7428" max="7428" width="9.1171875" customWidth="1"/>
+    <col min="7431" max="7431" width="8" customWidth="1"/>
+    <col min="7432" max="7432" width="9.1171875" customWidth="1"/>
+    <col min="7433" max="7433" width="10.1171875" customWidth="1"/>
+    <col min="7434" max="7434" width="7.46875" customWidth="1"/>
+    <col min="7435" max="7435" width="9.234375" customWidth="1"/>
+    <col min="7437" max="7437" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="3.234375" customWidth="1"/>
+    <col min="7682" max="7682" width="11.1171875" customWidth="1"/>
+    <col min="7683" max="7683" width="6.234375" customWidth="1"/>
+    <col min="7684" max="7684" width="9.1171875" customWidth="1"/>
+    <col min="7687" max="7687" width="8" customWidth="1"/>
+    <col min="7688" max="7688" width="9.1171875" customWidth="1"/>
+    <col min="7689" max="7689" width="10.1171875" customWidth="1"/>
+    <col min="7690" max="7690" width="7.46875" customWidth="1"/>
+    <col min="7691" max="7691" width="9.234375" customWidth="1"/>
+    <col min="7693" max="7693" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="3.234375" customWidth="1"/>
+    <col min="7938" max="7938" width="11.1171875" customWidth="1"/>
+    <col min="7939" max="7939" width="6.234375" customWidth="1"/>
+    <col min="7940" max="7940" width="9.1171875" customWidth="1"/>
+    <col min="7943" max="7943" width="8" customWidth="1"/>
+    <col min="7944" max="7944" width="9.1171875" customWidth="1"/>
+    <col min="7945" max="7945" width="10.1171875" customWidth="1"/>
+    <col min="7946" max="7946" width="7.46875" customWidth="1"/>
+    <col min="7947" max="7947" width="9.234375" customWidth="1"/>
+    <col min="7949" max="7949" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="3.234375" customWidth="1"/>
+    <col min="8194" max="8194" width="11.1171875" customWidth="1"/>
+    <col min="8195" max="8195" width="6.234375" customWidth="1"/>
+    <col min="8196" max="8196" width="9.1171875" customWidth="1"/>
+    <col min="8199" max="8199" width="8" customWidth="1"/>
+    <col min="8200" max="8200" width="9.1171875" customWidth="1"/>
+    <col min="8201" max="8201" width="10.1171875" customWidth="1"/>
+    <col min="8202" max="8202" width="7.46875" customWidth="1"/>
+    <col min="8203" max="8203" width="9.234375" customWidth="1"/>
+    <col min="8205" max="8205" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="3.234375" customWidth="1"/>
+    <col min="8450" max="8450" width="11.1171875" customWidth="1"/>
+    <col min="8451" max="8451" width="6.234375" customWidth="1"/>
+    <col min="8452" max="8452" width="9.1171875" customWidth="1"/>
+    <col min="8455" max="8455" width="8" customWidth="1"/>
+    <col min="8456" max="8456" width="9.1171875" customWidth="1"/>
+    <col min="8457" max="8457" width="10.1171875" customWidth="1"/>
+    <col min="8458" max="8458" width="7.46875" customWidth="1"/>
+    <col min="8459" max="8459" width="9.234375" customWidth="1"/>
+    <col min="8461" max="8461" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="3.234375" customWidth="1"/>
+    <col min="8706" max="8706" width="11.1171875" customWidth="1"/>
+    <col min="8707" max="8707" width="6.234375" customWidth="1"/>
+    <col min="8708" max="8708" width="9.1171875" customWidth="1"/>
+    <col min="8711" max="8711" width="8" customWidth="1"/>
+    <col min="8712" max="8712" width="9.1171875" customWidth="1"/>
+    <col min="8713" max="8713" width="10.1171875" customWidth="1"/>
+    <col min="8714" max="8714" width="7.46875" customWidth="1"/>
+    <col min="8715" max="8715" width="9.234375" customWidth="1"/>
+    <col min="8717" max="8717" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="3.234375" customWidth="1"/>
+    <col min="8962" max="8962" width="11.1171875" customWidth="1"/>
+    <col min="8963" max="8963" width="6.234375" customWidth="1"/>
+    <col min="8964" max="8964" width="9.1171875" customWidth="1"/>
+    <col min="8967" max="8967" width="8" customWidth="1"/>
+    <col min="8968" max="8968" width="9.1171875" customWidth="1"/>
+    <col min="8969" max="8969" width="10.1171875" customWidth="1"/>
+    <col min="8970" max="8970" width="7.46875" customWidth="1"/>
+    <col min="8971" max="8971" width="9.234375" customWidth="1"/>
+    <col min="8973" max="8973" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="3.234375" customWidth="1"/>
+    <col min="9218" max="9218" width="11.1171875" customWidth="1"/>
+    <col min="9219" max="9219" width="6.234375" customWidth="1"/>
+    <col min="9220" max="9220" width="9.1171875" customWidth="1"/>
+    <col min="9223" max="9223" width="8" customWidth="1"/>
+    <col min="9224" max="9224" width="9.1171875" customWidth="1"/>
+    <col min="9225" max="9225" width="10.1171875" customWidth="1"/>
+    <col min="9226" max="9226" width="7.46875" customWidth="1"/>
+    <col min="9227" max="9227" width="9.234375" customWidth="1"/>
+    <col min="9229" max="9229" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="3.234375" customWidth="1"/>
+    <col min="9474" max="9474" width="11.1171875" customWidth="1"/>
+    <col min="9475" max="9475" width="6.234375" customWidth="1"/>
+    <col min="9476" max="9476" width="9.1171875" customWidth="1"/>
+    <col min="9479" max="9479" width="8" customWidth="1"/>
+    <col min="9480" max="9480" width="9.1171875" customWidth="1"/>
+    <col min="9481" max="9481" width="10.1171875" customWidth="1"/>
+    <col min="9482" max="9482" width="7.46875" customWidth="1"/>
+    <col min="9483" max="9483" width="9.234375" customWidth="1"/>
+    <col min="9485" max="9485" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="3.234375" customWidth="1"/>
+    <col min="9730" max="9730" width="11.1171875" customWidth="1"/>
+    <col min="9731" max="9731" width="6.234375" customWidth="1"/>
+    <col min="9732" max="9732" width="9.1171875" customWidth="1"/>
+    <col min="9735" max="9735" width="8" customWidth="1"/>
+    <col min="9736" max="9736" width="9.1171875" customWidth="1"/>
+    <col min="9737" max="9737" width="10.1171875" customWidth="1"/>
+    <col min="9738" max="9738" width="7.46875" customWidth="1"/>
+    <col min="9739" max="9739" width="9.234375" customWidth="1"/>
+    <col min="9741" max="9741" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="3.234375" customWidth="1"/>
+    <col min="9986" max="9986" width="11.1171875" customWidth="1"/>
+    <col min="9987" max="9987" width="6.234375" customWidth="1"/>
+    <col min="9988" max="9988" width="9.1171875" customWidth="1"/>
+    <col min="9991" max="9991" width="8" customWidth="1"/>
+    <col min="9992" max="9992" width="9.1171875" customWidth="1"/>
+    <col min="9993" max="9993" width="10.1171875" customWidth="1"/>
+    <col min="9994" max="9994" width="7.46875" customWidth="1"/>
+    <col min="9995" max="9995" width="9.234375" customWidth="1"/>
+    <col min="9997" max="9997" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="3.234375" customWidth="1"/>
+    <col min="10242" max="10242" width="11.1171875" customWidth="1"/>
+    <col min="10243" max="10243" width="6.234375" customWidth="1"/>
+    <col min="10244" max="10244" width="9.1171875" customWidth="1"/>
+    <col min="10247" max="10247" width="8" customWidth="1"/>
+    <col min="10248" max="10248" width="9.1171875" customWidth="1"/>
+    <col min="10249" max="10249" width="10.1171875" customWidth="1"/>
+    <col min="10250" max="10250" width="7.46875" customWidth="1"/>
+    <col min="10251" max="10251" width="9.234375" customWidth="1"/>
+    <col min="10253" max="10253" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="3.234375" customWidth="1"/>
+    <col min="10498" max="10498" width="11.1171875" customWidth="1"/>
+    <col min="10499" max="10499" width="6.234375" customWidth="1"/>
+    <col min="10500" max="10500" width="9.1171875" customWidth="1"/>
+    <col min="10503" max="10503" width="8" customWidth="1"/>
+    <col min="10504" max="10504" width="9.1171875" customWidth="1"/>
+    <col min="10505" max="10505" width="10.1171875" customWidth="1"/>
+    <col min="10506" max="10506" width="7.46875" customWidth="1"/>
+    <col min="10507" max="10507" width="9.234375" customWidth="1"/>
+    <col min="10509" max="10509" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="3.234375" customWidth="1"/>
+    <col min="10754" max="10754" width="11.1171875" customWidth="1"/>
+    <col min="10755" max="10755" width="6.234375" customWidth="1"/>
+    <col min="10756" max="10756" width="9.1171875" customWidth="1"/>
+    <col min="10759" max="10759" width="8" customWidth="1"/>
+    <col min="10760" max="10760" width="9.1171875" customWidth="1"/>
+    <col min="10761" max="10761" width="10.1171875" customWidth="1"/>
+    <col min="10762" max="10762" width="7.46875" customWidth="1"/>
+    <col min="10763" max="10763" width="9.234375" customWidth="1"/>
+    <col min="10765" max="10765" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="3.234375" customWidth="1"/>
+    <col min="11010" max="11010" width="11.1171875" customWidth="1"/>
+    <col min="11011" max="11011" width="6.234375" customWidth="1"/>
+    <col min="11012" max="11012" width="9.1171875" customWidth="1"/>
+    <col min="11015" max="11015" width="8" customWidth="1"/>
+    <col min="11016" max="11016" width="9.1171875" customWidth="1"/>
+    <col min="11017" max="11017" width="10.1171875" customWidth="1"/>
+    <col min="11018" max="11018" width="7.46875" customWidth="1"/>
+    <col min="11019" max="11019" width="9.234375" customWidth="1"/>
+    <col min="11021" max="11021" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="3.234375" customWidth="1"/>
+    <col min="11266" max="11266" width="11.1171875" customWidth="1"/>
+    <col min="11267" max="11267" width="6.234375" customWidth="1"/>
+    <col min="11268" max="11268" width="9.1171875" customWidth="1"/>
+    <col min="11271" max="11271" width="8" customWidth="1"/>
+    <col min="11272" max="11272" width="9.1171875" customWidth="1"/>
+    <col min="11273" max="11273" width="10.1171875" customWidth="1"/>
+    <col min="11274" max="11274" width="7.46875" customWidth="1"/>
+    <col min="11275" max="11275" width="9.234375" customWidth="1"/>
+    <col min="11277" max="11277" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="3.234375" customWidth="1"/>
+    <col min="11522" max="11522" width="11.1171875" customWidth="1"/>
+    <col min="11523" max="11523" width="6.234375" customWidth="1"/>
+    <col min="11524" max="11524" width="9.1171875" customWidth="1"/>
+    <col min="11527" max="11527" width="8" customWidth="1"/>
+    <col min="11528" max="11528" width="9.1171875" customWidth="1"/>
+    <col min="11529" max="11529" width="10.1171875" customWidth="1"/>
+    <col min="11530" max="11530" width="7.46875" customWidth="1"/>
+    <col min="11531" max="11531" width="9.234375" customWidth="1"/>
+    <col min="11533" max="11533" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="3.234375" customWidth="1"/>
+    <col min="11778" max="11778" width="11.1171875" customWidth="1"/>
+    <col min="11779" max="11779" width="6.234375" customWidth="1"/>
+    <col min="11780" max="11780" width="9.1171875" customWidth="1"/>
+    <col min="11783" max="11783" width="8" customWidth="1"/>
+    <col min="11784" max="11784" width="9.1171875" customWidth="1"/>
+    <col min="11785" max="11785" width="10.1171875" customWidth="1"/>
+    <col min="11786" max="11786" width="7.46875" customWidth="1"/>
+    <col min="11787" max="11787" width="9.234375" customWidth="1"/>
+    <col min="11789" max="11789" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="3.234375" customWidth="1"/>
+    <col min="12034" max="12034" width="11.1171875" customWidth="1"/>
+    <col min="12035" max="12035" width="6.234375" customWidth="1"/>
+    <col min="12036" max="12036" width="9.1171875" customWidth="1"/>
+    <col min="12039" max="12039" width="8" customWidth="1"/>
+    <col min="12040" max="12040" width="9.1171875" customWidth="1"/>
+    <col min="12041" max="12041" width="10.1171875" customWidth="1"/>
+    <col min="12042" max="12042" width="7.46875" customWidth="1"/>
+    <col min="12043" max="12043" width="9.234375" customWidth="1"/>
+    <col min="12045" max="12045" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="3.234375" customWidth="1"/>
+    <col min="12290" max="12290" width="11.1171875" customWidth="1"/>
+    <col min="12291" max="12291" width="6.234375" customWidth="1"/>
+    <col min="12292" max="12292" width="9.1171875" customWidth="1"/>
+    <col min="12295" max="12295" width="8" customWidth="1"/>
+    <col min="12296" max="12296" width="9.1171875" customWidth="1"/>
+    <col min="12297" max="12297" width="10.1171875" customWidth="1"/>
+    <col min="12298" max="12298" width="7.46875" customWidth="1"/>
+    <col min="12299" max="12299" width="9.234375" customWidth="1"/>
+    <col min="12301" max="12301" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="3.234375" customWidth="1"/>
+    <col min="12546" max="12546" width="11.1171875" customWidth="1"/>
+    <col min="12547" max="12547" width="6.234375" customWidth="1"/>
+    <col min="12548" max="12548" width="9.1171875" customWidth="1"/>
+    <col min="12551" max="12551" width="8" customWidth="1"/>
+    <col min="12552" max="12552" width="9.1171875" customWidth="1"/>
+    <col min="12553" max="12553" width="10.1171875" customWidth="1"/>
+    <col min="12554" max="12554" width="7.46875" customWidth="1"/>
+    <col min="12555" max="12555" width="9.234375" customWidth="1"/>
+    <col min="12557" max="12557" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="3.234375" customWidth="1"/>
+    <col min="12802" max="12802" width="11.1171875" customWidth="1"/>
+    <col min="12803" max="12803" width="6.234375" customWidth="1"/>
+    <col min="12804" max="12804" width="9.1171875" customWidth="1"/>
+    <col min="12807" max="12807" width="8" customWidth="1"/>
+    <col min="12808" max="12808" width="9.1171875" customWidth="1"/>
+    <col min="12809" max="12809" width="10.1171875" customWidth="1"/>
+    <col min="12810" max="12810" width="7.46875" customWidth="1"/>
+    <col min="12811" max="12811" width="9.234375" customWidth="1"/>
+    <col min="12813" max="12813" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="3.234375" customWidth="1"/>
+    <col min="13058" max="13058" width="11.1171875" customWidth="1"/>
+    <col min="13059" max="13059" width="6.234375" customWidth="1"/>
+    <col min="13060" max="13060" width="9.1171875" customWidth="1"/>
+    <col min="13063" max="13063" width="8" customWidth="1"/>
+    <col min="13064" max="13064" width="9.1171875" customWidth="1"/>
+    <col min="13065" max="13065" width="10.1171875" customWidth="1"/>
+    <col min="13066" max="13066" width="7.46875" customWidth="1"/>
+    <col min="13067" max="13067" width="9.234375" customWidth="1"/>
+    <col min="13069" max="13069" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="3.234375" customWidth="1"/>
+    <col min="13314" max="13314" width="11.1171875" customWidth="1"/>
+    <col min="13315" max="13315" width="6.234375" customWidth="1"/>
+    <col min="13316" max="13316" width="9.1171875" customWidth="1"/>
+    <col min="13319" max="13319" width="8" customWidth="1"/>
+    <col min="13320" max="13320" width="9.1171875" customWidth="1"/>
+    <col min="13321" max="13321" width="10.1171875" customWidth="1"/>
+    <col min="13322" max="13322" width="7.46875" customWidth="1"/>
+    <col min="13323" max="13323" width="9.234375" customWidth="1"/>
+    <col min="13325" max="13325" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="3.234375" customWidth="1"/>
+    <col min="13570" max="13570" width="11.1171875" customWidth="1"/>
+    <col min="13571" max="13571" width="6.234375" customWidth="1"/>
+    <col min="13572" max="13572" width="9.1171875" customWidth="1"/>
+    <col min="13575" max="13575" width="8" customWidth="1"/>
+    <col min="13576" max="13576" width="9.1171875" customWidth="1"/>
+    <col min="13577" max="13577" width="10.1171875" customWidth="1"/>
+    <col min="13578" max="13578" width="7.46875" customWidth="1"/>
+    <col min="13579" max="13579" width="9.234375" customWidth="1"/>
+    <col min="13581" max="13581" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="3.234375" customWidth="1"/>
+    <col min="13826" max="13826" width="11.1171875" customWidth="1"/>
+    <col min="13827" max="13827" width="6.234375" customWidth="1"/>
+    <col min="13828" max="13828" width="9.1171875" customWidth="1"/>
+    <col min="13831" max="13831" width="8" customWidth="1"/>
+    <col min="13832" max="13832" width="9.1171875" customWidth="1"/>
+    <col min="13833" max="13833" width="10.1171875" customWidth="1"/>
+    <col min="13834" max="13834" width="7.46875" customWidth="1"/>
+    <col min="13835" max="13835" width="9.234375" customWidth="1"/>
+    <col min="13837" max="13837" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="3.234375" customWidth="1"/>
+    <col min="14082" max="14082" width="11.1171875" customWidth="1"/>
+    <col min="14083" max="14083" width="6.234375" customWidth="1"/>
+    <col min="14084" max="14084" width="9.1171875" customWidth="1"/>
+    <col min="14087" max="14087" width="8" customWidth="1"/>
+    <col min="14088" max="14088" width="9.1171875" customWidth="1"/>
+    <col min="14089" max="14089" width="10.1171875" customWidth="1"/>
+    <col min="14090" max="14090" width="7.46875" customWidth="1"/>
+    <col min="14091" max="14091" width="9.234375" customWidth="1"/>
+    <col min="14093" max="14093" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="3.234375" customWidth="1"/>
+    <col min="14338" max="14338" width="11.1171875" customWidth="1"/>
+    <col min="14339" max="14339" width="6.234375" customWidth="1"/>
+    <col min="14340" max="14340" width="9.1171875" customWidth="1"/>
+    <col min="14343" max="14343" width="8" customWidth="1"/>
+    <col min="14344" max="14344" width="9.1171875" customWidth="1"/>
+    <col min="14345" max="14345" width="10.1171875" customWidth="1"/>
+    <col min="14346" max="14346" width="7.46875" customWidth="1"/>
+    <col min="14347" max="14347" width="9.234375" customWidth="1"/>
+    <col min="14349" max="14349" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="3.234375" customWidth="1"/>
+    <col min="14594" max="14594" width="11.1171875" customWidth="1"/>
+    <col min="14595" max="14595" width="6.234375" customWidth="1"/>
+    <col min="14596" max="14596" width="9.1171875" customWidth="1"/>
+    <col min="14599" max="14599" width="8" customWidth="1"/>
+    <col min="14600" max="14600" width="9.1171875" customWidth="1"/>
+    <col min="14601" max="14601" width="10.1171875" customWidth="1"/>
+    <col min="14602" max="14602" width="7.46875" customWidth="1"/>
+    <col min="14603" max="14603" width="9.234375" customWidth="1"/>
+    <col min="14605" max="14605" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="3.234375" customWidth="1"/>
+    <col min="14850" max="14850" width="11.1171875" customWidth="1"/>
+    <col min="14851" max="14851" width="6.234375" customWidth="1"/>
+    <col min="14852" max="14852" width="9.1171875" customWidth="1"/>
+    <col min="14855" max="14855" width="8" customWidth="1"/>
+    <col min="14856" max="14856" width="9.1171875" customWidth="1"/>
+    <col min="14857" max="14857" width="10.1171875" customWidth="1"/>
+    <col min="14858" max="14858" width="7.46875" customWidth="1"/>
+    <col min="14859" max="14859" width="9.234375" customWidth="1"/>
+    <col min="14861" max="14861" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="3.234375" customWidth="1"/>
+    <col min="15106" max="15106" width="11.1171875" customWidth="1"/>
+    <col min="15107" max="15107" width="6.234375" customWidth="1"/>
+    <col min="15108" max="15108" width="9.1171875" customWidth="1"/>
+    <col min="15111" max="15111" width="8" customWidth="1"/>
+    <col min="15112" max="15112" width="9.1171875" customWidth="1"/>
+    <col min="15113" max="15113" width="10.1171875" customWidth="1"/>
+    <col min="15114" max="15114" width="7.46875" customWidth="1"/>
+    <col min="15115" max="15115" width="9.234375" customWidth="1"/>
+    <col min="15117" max="15117" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="3.234375" customWidth="1"/>
+    <col min="15362" max="15362" width="11.1171875" customWidth="1"/>
+    <col min="15363" max="15363" width="6.234375" customWidth="1"/>
+    <col min="15364" max="15364" width="9.1171875" customWidth="1"/>
+    <col min="15367" max="15367" width="8" customWidth="1"/>
+    <col min="15368" max="15368" width="9.1171875" customWidth="1"/>
+    <col min="15369" max="15369" width="10.1171875" customWidth="1"/>
+    <col min="15370" max="15370" width="7.46875" customWidth="1"/>
+    <col min="15371" max="15371" width="9.234375" customWidth="1"/>
+    <col min="15373" max="15373" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="3.234375" customWidth="1"/>
+    <col min="15618" max="15618" width="11.1171875" customWidth="1"/>
+    <col min="15619" max="15619" width="6.234375" customWidth="1"/>
+    <col min="15620" max="15620" width="9.1171875" customWidth="1"/>
+    <col min="15623" max="15623" width="8" customWidth="1"/>
+    <col min="15624" max="15624" width="9.1171875" customWidth="1"/>
+    <col min="15625" max="15625" width="10.1171875" customWidth="1"/>
+    <col min="15626" max="15626" width="7.46875" customWidth="1"/>
+    <col min="15627" max="15627" width="9.234375" customWidth="1"/>
+    <col min="15629" max="15629" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="3.234375" customWidth="1"/>
+    <col min="15874" max="15874" width="11.1171875" customWidth="1"/>
+    <col min="15875" max="15875" width="6.234375" customWidth="1"/>
+    <col min="15876" max="15876" width="9.1171875" customWidth="1"/>
+    <col min="15879" max="15879" width="8" customWidth="1"/>
+    <col min="15880" max="15880" width="9.1171875" customWidth="1"/>
+    <col min="15881" max="15881" width="10.1171875" customWidth="1"/>
+    <col min="15882" max="15882" width="7.46875" customWidth="1"/>
+    <col min="15883" max="15883" width="9.234375" customWidth="1"/>
+    <col min="15885" max="15885" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="3.234375" customWidth="1"/>
+    <col min="16130" max="16130" width="11.1171875" customWidth="1"/>
+    <col min="16131" max="16131" width="6.234375" customWidth="1"/>
+    <col min="16132" max="16132" width="9.1171875" customWidth="1"/>
+    <col min="16135" max="16135" width="8" customWidth="1"/>
+    <col min="16136" max="16136" width="9.1171875" customWidth="1"/>
+    <col min="16137" max="16137" width="10.1171875" customWidth="1"/>
+    <col min="16138" max="16138" width="7.46875" customWidth="1"/>
+    <col min="16139" max="16139" width="9.234375" customWidth="1"/>
+    <col min="16141" max="16141" width="9.3515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="146" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="143" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="2:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:11" ht="16.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:11" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="147">
+        <v>45107</v>
+      </c>
+      <c r="K10" s="147"/>
+    </row>
+    <row r="11" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="2:11" ht="1.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="13"/>
+    </row>
+    <row r="16" spans="2:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="2:17" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="2:17" ht="7.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="2:17" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="2:17" ht="7.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="2:17" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="150" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="149"/>
+      <c r="H25" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="152"/>
+      <c r="J25" s="135" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="153"/>
+    </row>
+    <row r="26" spans="2:17" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B26" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="2:17" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="37"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="24"/>
+      <c r="M27" s="25"/>
+      <c r="O27" s="26"/>
+      <c r="Q27" s="26"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="22"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="17"/>
+      <c r="M28" s="25"/>
+      <c r="O28" s="26"/>
+      <c r="Q28" s="26"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="44">
+        <v>57.28</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="45">
+        <v>30</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="24">
+        <f>B29*G29*I29</f>
+        <v>515.52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="37"/>
+      <c r="C30" s="21"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="44"/>
+      <c r="C31" s="21"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="27"/>
+      <c r="C32" s="21"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="37"/>
+      <c r="C33" s="21"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="44"/>
+      <c r="C34" s="21"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="27"/>
+      <c r="C35" s="21"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="37"/>
+      <c r="C36" s="21"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="44"/>
+      <c r="C37" s="21"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="27"/>
+      <c r="C38" s="21"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="24"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="37"/>
+      <c r="C39" s="21"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="24"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="44"/>
+      <c r="C40" s="21"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="44"/>
+      <c r="C41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="37"/>
+      <c r="C42" s="21"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="24"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="44"/>
+      <c r="C43" s="21"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="24"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="27"/>
+      <c r="C44" s="21"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="24"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="37"/>
+      <c r="C45" s="21"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="24"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="44"/>
+      <c r="C46" s="21"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="24"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="47"/>
+      <c r="C47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="24"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="37"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="24"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="37"/>
+      <c r="C49" s="21"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="24"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="44"/>
+      <c r="C50" s="21"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="24"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="27"/>
+      <c r="C51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="41"/>
+    </row>
+    <row r="53" spans="2:11" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B53" s="16"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="33">
+        <f>SUM(K29:K50)</f>
+        <v>515.52</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B54" s="16"/>
+      <c r="F54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="J54" s="29"/>
+    </row>
+    <row r="55" spans="2:11" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+    </row>
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B56" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B57" s="10"/>
+    </row>
+    <row r="58" spans="2:11" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B58" s="36"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B59" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="K53" evalError="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5462,15 +5510,15 @@
   <sheetData>
     <row r="1" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
@@ -5488,39 +5536,39 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5554,10 +5602,10 @@
       <c r="I10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="129">
+      <c r="J10" s="147">
         <v>45107</v>
       </c>
-      <c r="K10" s="129"/>
+      <c r="K10" s="147"/>
     </row>
     <row r="11" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
@@ -5686,24 +5734,24 @@
     </row>
     <row r="24" spans="2:17" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132" t="s">
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="131"/>
-      <c r="H25" s="133" t="s">
+      <c r="G25" s="149"/>
+      <c r="H25" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="134"/>
+      <c r="I25" s="152"/>
       <c r="J25" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="136"/>
+      <c r="K25" s="153"/>
     </row>
     <row r="26" spans="2:17" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="37" t="s">
@@ -6158,7 +6206,7 @@
   <dimension ref="B1:Q49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B25" sqref="B25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6806,15 +6854,15 @@
   <sheetData>
     <row r="1" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
@@ -6832,39 +6880,39 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6898,10 +6946,10 @@
       <c r="I10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="129">
+      <c r="J10" s="147">
         <v>45079</v>
       </c>
-      <c r="K10" s="129"/>
+      <c r="K10" s="147"/>
     </row>
     <row r="11" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
@@ -7030,20 +7078,20 @@
     </row>
     <row r="24" spans="2:17" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:17" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="145" t="s">
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="153"/>
+      <c r="G25" s="154"/>
       <c r="H25" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="144"/>
+      <c r="I25" s="133"/>
     </row>
     <row r="26" spans="2:17" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="37" t="s">
